--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_25_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78258.54062496962</v>
+        <v>78037.932775465</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960784</v>
+        <v>244259.5951960788</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12624605.69277828</v>
+        <v>12624605.69277827</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.371686071942593</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="F11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="G11" t="n">
-        <v>9.954442416102966</v>
+        <v>8.767872880103596</v>
       </c>
       <c r="H11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1406,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.148348227941824</v>
+        <v>0.1483482279416535</v>
       </c>
       <c r="P11" t="n">
-        <v>6.824007688654433</v>
+        <v>6.824007688654262</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.682629589090709</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.954442416102966</v>
+        <v>8.875626018851479</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.954442416103635</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.954442416103635</v>
+        <v>7.689056482852126</v>
       </c>
       <c r="F14" t="n">
-        <v>9.954442416103635</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="G14" t="n">
-        <v>9.954442416103635</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="H14" t="n">
-        <v>7.689056482852573</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>9.954442416103635</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1483482279416748</v>
+        <v>0.1483482279415966</v>
       </c>
       <c r="P14" t="n">
-        <v>6.824007688654273</v>
+        <v>6.824007688654206</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.6826295890905385</v>
+        <v>0.6826295890906522</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.954442416103635</v>
+        <v>9.954442416103225</v>
       </c>
     </row>
     <row r="15">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.1611622650712</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.23025679607264</v>
+        <v>10.23025679607275</v>
       </c>
       <c r="F17" t="n">
-        <v>16.1611622650712</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="G17" t="n">
-        <v>16.1611622650712</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="H17" t="n">
-        <v>16.1611622650712</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.22716416676019</v>
+        <v>10.22716416676008</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.601546259976431</v>
+        <v>5.601546259976374</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.1611622650712</v>
+        <v>16.16116226507131</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.1611622650712</v>
+        <v>16.16116226507125</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10.23025679607264</v>
+        <v>10.23025679607269</v>
       </c>
       <c r="F20" t="n">
-        <v>16.16116226507142</v>
+        <v>16.16116226507125</v>
       </c>
       <c r="G20" t="n">
-        <v>16.16116226507142</v>
+        <v>16.16116226507125</v>
       </c>
       <c r="H20" t="n">
-        <v>16.16116226507142</v>
+        <v>16.16116226507125</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>10.22716416676019</v>
+        <v>10.22716416676002</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.601546259976431</v>
+        <v>5.601546259976317</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.16116226507142</v>
+        <v>16.16116226507125</v>
       </c>
     </row>
     <row r="21">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.40757707765141</v>
+        <v>8.407577077651183</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.781959170867651</v>
+        <v>3.781959170867481</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.407577077651268</v>
+        <v>8.407577077651069</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.781959170867538</v>
+        <v>3.781959170867367</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.34157517596236</v>
+        <v>14.34157517596248</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.410669706963802</v>
+        <v>8.410669706963915</v>
       </c>
       <c r="F29" t="n">
-        <v>31.18155298684076</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="G29" t="n">
-        <v>31.18155298684076</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="H29" t="n">
-        <v>26.91487860438286</v>
+        <v>26.91487860438298</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.407577077651354</v>
+        <v>8.40757707765124</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.781959170867594</v>
+        <v>3.781959170867538</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.18155298684076</v>
+        <v>31.18155298684087</v>
       </c>
     </row>
     <row r="30">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.35235287977071</v>
+        <v>13.35235287977088</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.421447410772146</v>
+        <v>7.421447410772316</v>
       </c>
       <c r="F32" t="n">
-        <v>47.34271525191215</v>
+        <v>47.34271525191228</v>
       </c>
       <c r="G32" t="n">
-        <v>47.34271525191215</v>
+        <v>47.34271525191228</v>
       </c>
       <c r="H32" t="n">
-        <v>25.92565630819121</v>
+        <v>25.92565630819138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.418354781459698</v>
+        <v>7.418354781459694</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.792736874675938</v>
+        <v>2.792736874675995</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.1923306906491</v>
+        <v>30.19233069064927</v>
       </c>
     </row>
     <row r="33">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.35235287977071</v>
+        <v>13.35235287977093</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.421447410772146</v>
+        <v>7.421447410772373</v>
       </c>
       <c r="F35" t="n">
-        <v>37.38827283580919</v>
+        <v>37.38827283580906</v>
       </c>
       <c r="G35" t="n">
-        <v>37.38827283580919</v>
+        <v>37.38827283580906</v>
       </c>
       <c r="H35" t="n">
-        <v>25.92565630819124</v>
+        <v>25.92565630819145</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.418354781459669</v>
+        <v>7.418354781459751</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.792736874675949</v>
+        <v>2.792736874676045</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.1923306906491</v>
+        <v>30.19233069064933</v>
       </c>
     </row>
     <row r="36">
@@ -3512,10 +3512,10 @@
         <v>8.030757324419255</v>
       </c>
       <c r="F38" t="n">
-        <v>37.38827283580824</v>
+        <v>37.38827283580906</v>
       </c>
       <c r="G38" t="n">
-        <v>37.38827283580824</v>
+        <v>37.38827283580906</v>
       </c>
       <c r="H38" t="n">
         <v>26.53496622183832</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>8.027664695106807</v>
+        <v>8.027664695106637</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>3.402046788323059</v>
+        <v>3.402046788322934</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.34157517596225</v>
+        <v>14.34157517596253</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.410669706963688</v>
+        <v>8.410669706963972</v>
       </c>
       <c r="F41" t="n">
-        <v>31.18155298684064</v>
+        <v>31.18155298684093</v>
       </c>
       <c r="G41" t="n">
-        <v>31.18155298684064</v>
+        <v>31.18155298684093</v>
       </c>
       <c r="H41" t="n">
-        <v>26.91487860438275</v>
+        <v>26.91487860438303</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.40757707765124</v>
+        <v>8.407577077651247</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.781959170867491</v>
+        <v>3.781959170867538</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.18155298684064</v>
+        <v>31.18155298684093</v>
       </c>
     </row>
     <row r="42">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.34157517596242</v>
+        <v>14.34157517596248</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.410669706963859</v>
+        <v>8.410669706963915</v>
       </c>
       <c r="F44" t="n">
-        <v>31.18155298684063</v>
+        <v>31.18155298684093</v>
       </c>
       <c r="G44" t="n">
-        <v>31.18155298684063</v>
+        <v>31.18155298684093</v>
       </c>
       <c r="H44" t="n">
-        <v>26.91487860438292</v>
+        <v>26.91487860438298</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.40757707765141</v>
+        <v>8.407577077651297</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.781959170867662</v>
+        <v>3.781959170867594</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.18155298684063</v>
+        <v>31.18155298684093</v>
       </c>
     </row>
     <row r="45">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.70778498541597</v>
+        <v>20.10797368052832</v>
       </c>
       <c r="C11" t="n">
-        <v>29.56268297735791</v>
+        <v>29.96287167247043</v>
       </c>
       <c r="D11" t="n">
-        <v>39.41758096929985</v>
+        <v>39.81776966441253</v>
       </c>
       <c r="E11" t="n">
-        <v>30.96133241178208</v>
+        <v>29.76277732491437</v>
       </c>
       <c r="F11" t="n">
-        <v>20.90634007228413</v>
+        <v>19.70778498541626</v>
       </c>
       <c r="G11" t="n">
-        <v>10.85134773278618</v>
+        <v>10.85134773278636</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="I11" t="n">
-        <v>7.296454416659287</v>
+        <v>7.296454416659396</v>
       </c>
       <c r="J11" t="n">
-        <v>17.15135240860106</v>
+        <v>17.1513524086015</v>
       </c>
       <c r="K11" t="n">
-        <v>17.15135240860106</v>
+        <v>25.10627561076626</v>
       </c>
       <c r="L11" t="n">
-        <v>7.096360069103116</v>
+        <v>15.05128327126815</v>
       </c>
       <c r="M11" t="n">
-        <v>7.926632831635231</v>
+        <v>15.05128327126815</v>
       </c>
       <c r="N11" t="n">
-        <v>7.926632831635231</v>
+        <v>17.93329815100134</v>
       </c>
       <c r="O11" t="n">
-        <v>7.776786136744477</v>
+        <v>17.78345145611065</v>
       </c>
       <c r="P11" t="n">
-        <v>0.883849077497759</v>
+        <v>10.89051439686392</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.883849077497759</v>
+        <v>11.55771077834091</v>
       </c>
       <c r="R11" t="n">
-        <v>0.883849077497759</v>
+        <v>11.55771077834091</v>
       </c>
       <c r="S11" t="n">
-        <v>0.883849077497759</v>
+        <v>21.41260877028301</v>
       </c>
       <c r="T11" t="n">
-        <v>10.25307568858605</v>
+        <v>31.26750676222512</v>
       </c>
       <c r="U11" t="n">
-        <v>20.10797368052799</v>
+        <v>39.81776966441253</v>
       </c>
       <c r="V11" t="n">
-        <v>29.96287167246993</v>
+        <v>39.81776966441253</v>
       </c>
       <c r="W11" t="n">
-        <v>39.81776966441186</v>
+        <v>39.81776966441253</v>
       </c>
       <c r="X11" t="n">
-        <v>39.81776966441186</v>
+        <v>39.12824482694712</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.76277732491392</v>
+        <v>30.16296602002644</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="X12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="W13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882507</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.01826014795207</v>
+        <v>19.01826014795114</v>
       </c>
       <c r="C14" t="n">
-        <v>28.87315813989466</v>
+        <v>28.87315813989333</v>
       </c>
       <c r="D14" t="n">
-        <v>38.72805613183726</v>
+        <v>38.72805613183553</v>
       </c>
       <c r="E14" t="n">
-        <v>28.67306379233864</v>
+        <v>30.96133241178288</v>
       </c>
       <c r="F14" t="n">
-        <v>18.61807145284002</v>
+        <v>20.90634007228467</v>
       </c>
       <c r="G14" t="n">
-        <v>8.563079113341395</v>
+        <v>10.85134773278646</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7963553932882909</v>
+        <v>7.296454416659401</v>
       </c>
       <c r="J14" t="n">
-        <v>9.108935522227512</v>
+        <v>17.15135240860165</v>
       </c>
       <c r="K14" t="n">
-        <v>17.06385872439228</v>
+        <v>22.97136775847935</v>
       </c>
       <c r="L14" t="n">
-        <v>7.008866384893654</v>
+        <v>12.91637541898114</v>
       </c>
       <c r="M14" t="n">
-        <v>7.839139147425648</v>
+        <v>13.74664818151354</v>
       </c>
       <c r="N14" t="n">
-        <v>7.839139147425648</v>
+        <v>16.62866306124674</v>
       </c>
       <c r="O14" t="n">
-        <v>7.689292452535067</v>
+        <v>16.47881636635611</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7963553932882909</v>
+        <v>9.585879307109437</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7963553932882909</v>
+        <v>10.25307568858632</v>
       </c>
       <c r="R14" t="n">
-        <v>3.522213289753608</v>
+        <v>10.25307568858632</v>
       </c>
       <c r="S14" t="n">
-        <v>3.522213289753608</v>
+        <v>10.25307568858632</v>
       </c>
       <c r="T14" t="n">
-        <v>13.37711128169619</v>
+        <v>20.10797368052851</v>
       </c>
       <c r="U14" t="n">
-        <v>23.23200927363879</v>
+        <v>29.9628716724707</v>
       </c>
       <c r="V14" t="n">
-        <v>29.96287167247194</v>
+        <v>39.8177696644129</v>
       </c>
       <c r="W14" t="n">
-        <v>39.81776966441454</v>
+        <v>39.8177696644129</v>
       </c>
       <c r="X14" t="n">
-        <v>39.12824482694931</v>
+        <v>39.12824482694756</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.07325248745069</v>
+        <v>29.07325248744935</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="W15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="W16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.7963553932882909</v>
+        <v>0.796355393288258</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.9958364035755</v>
+        <v>31.073726483125</v>
       </c>
       <c r="C17" t="n">
-        <v>47.99538704599599</v>
+        <v>44.60015404715548</v>
       </c>
       <c r="D17" t="n">
-        <v>60.59970468957562</v>
+        <v>60.59970468957609</v>
       </c>
       <c r="E17" t="n">
-        <v>50.26611196626994</v>
+        <v>50.26611196627029</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94170563791519</v>
+        <v>33.94170563791543</v>
       </c>
       <c r="G17" t="n">
-        <v>17.61729930956044</v>
+        <v>17.61729930956056</v>
       </c>
       <c r="H17" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="I17" t="n">
-        <v>1.292892981205696</v>
+        <v>9.003228818967919</v>
       </c>
       <c r="J17" t="n">
-        <v>17.28148937184881</v>
+        <v>25.00277946138852</v>
       </c>
       <c r="K17" t="n">
-        <v>17.28148937184881</v>
+        <v>34.16793947794447</v>
       </c>
       <c r="L17" t="n">
-        <v>6.951020516535424</v>
+        <v>23.83747062263126</v>
       </c>
       <c r="M17" t="n">
-        <v>6.951020516535424</v>
+        <v>25.87798019955472</v>
       </c>
       <c r="N17" t="n">
-        <v>6.951020516535424</v>
+        <v>29.970231893679</v>
       </c>
       <c r="O17" t="n">
-        <v>6.951020516535424</v>
+        <v>31.03360396240786</v>
       </c>
       <c r="P17" t="n">
-        <v>1.292892981205696</v>
+        <v>25.37547642707819</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.292892981205696</v>
+        <v>27.25290962294621</v>
       </c>
       <c r="R17" t="n">
-        <v>1.292892981205696</v>
+        <v>31.18900433380222</v>
       </c>
       <c r="S17" t="n">
-        <v>17.29244362362618</v>
+        <v>31.18900433380222</v>
       </c>
       <c r="T17" t="n">
-        <v>33.29199426604666</v>
+        <v>47.18855497622282</v>
       </c>
       <c r="U17" t="n">
-        <v>48.6450984178643</v>
+        <v>47.18855497622282</v>
       </c>
       <c r="V17" t="n">
-        <v>64.64464906028479</v>
+        <v>63.18810561864342</v>
       </c>
       <c r="W17" t="n">
-        <v>64.64464906028479</v>
+        <v>63.18810561864342</v>
       </c>
       <c r="X17" t="n">
-        <v>64.64464906028479</v>
+        <v>63.72253913983473</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.32024273193025</v>
+        <v>47.39813281147987</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="C18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="D18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="E18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="F18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="G18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="H18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="I18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="J18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="K18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="L18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="M18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="N18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="O18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="P18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="R18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="S18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="T18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="U18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="V18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="W18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="X18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="C19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="D19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="E19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="F19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="G19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="H19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="I19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="J19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="K19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="L19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="M19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="N19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="O19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="P19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="R19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="S19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="T19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="U19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="V19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="W19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="X19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.292892981205696</v>
+        <v>1.292892981205705</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.6006034047349</v>
+        <v>31.99583640357541</v>
       </c>
       <c r="C20" t="n">
-        <v>44.60015404715561</v>
+        <v>47.9953870459959</v>
       </c>
       <c r="D20" t="n">
-        <v>60.59970468957631</v>
+        <v>60.59970468957587</v>
       </c>
       <c r="E20" t="n">
-        <v>50.26611196627063</v>
+        <v>50.26611196627011</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94170563791565</v>
+        <v>33.94170563791531</v>
       </c>
       <c r="G20" t="n">
-        <v>17.61729930956069</v>
+        <v>17.6172993095605</v>
       </c>
       <c r="H20" t="n">
-        <v>1.292892981205714</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="I20" t="n">
-        <v>1.292892981205714</v>
+        <v>9.003228818967955</v>
       </c>
       <c r="J20" t="n">
-        <v>17.29244362362642</v>
+        <v>12.12586560899515</v>
       </c>
       <c r="K20" t="n">
-        <v>17.29244362362642</v>
+        <v>12.12586560899515</v>
       </c>
       <c r="L20" t="n">
-        <v>6.961974768312936</v>
+        <v>1.795396753682003</v>
       </c>
       <c r="M20" t="n">
-        <v>6.961974768312936</v>
+        <v>1.795396753682003</v>
       </c>
       <c r="N20" t="n">
-        <v>11.05422646243711</v>
+        <v>5.887648447806344</v>
       </c>
       <c r="O20" t="n">
-        <v>12.11759853116592</v>
+        <v>6.95102051653534</v>
       </c>
       <c r="P20" t="n">
-        <v>6.45947099583617</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.336904191704134</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="R20" t="n">
-        <v>12.2729989025604</v>
+        <v>5.228987692062045</v>
       </c>
       <c r="S20" t="n">
-        <v>12.2729989025604</v>
+        <v>21.22853833448259</v>
       </c>
       <c r="T20" t="n">
-        <v>28.27254954498111</v>
+        <v>32.11111425425253</v>
       </c>
       <c r="U20" t="n">
-        <v>28.71588125541162</v>
+        <v>48.1106648966731</v>
       </c>
       <c r="V20" t="n">
-        <v>44.71543189783233</v>
+        <v>48.1106648966731</v>
       </c>
       <c r="W20" t="n">
-        <v>60.71498254025306</v>
+        <v>64.11021553909364</v>
       </c>
       <c r="X20" t="n">
-        <v>61.24941606144451</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="Y20" t="n">
-        <v>44.92500973308965</v>
+        <v>48.32024273193021</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="C21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="D21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="E21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="F21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="G21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="H21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="I21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="J21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="K21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="L21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="M21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="N21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="O21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="P21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="R21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="S21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="T21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="U21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="V21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="W21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="X21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.292892981205714</v>
+        <v>64.64464906028502</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="C22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="D22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="E22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="F22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="G22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="H22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="I22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="J22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="K22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="L22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="M22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="N22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="O22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="P22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="R22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="S22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="T22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="U22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="V22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="W22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="X22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.64464906028569</v>
+        <v>1.2928929812057</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>92.67430664103267</v>
       </c>
       <c r="F23" t="n">
-        <v>61.17778847250659</v>
+        <v>61.1777884725066</v>
       </c>
       <c r="G23" t="n">
         <v>29.68127030398052</v>
@@ -5987,52 +5987,52 @@
         <v>2.494524238947265</v>
       </c>
       <c r="J23" t="n">
-        <v>10.98702633758504</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="K23" t="n">
-        <v>10.98702633758504</v>
+        <v>10.98702633758482</v>
       </c>
       <c r="L23" t="n">
         <v>2.494524238947265</v>
       </c>
       <c r="M23" t="n">
-        <v>6.336425034088203</v>
+        <v>6.336425034088506</v>
       </c>
       <c r="N23" t="n">
-        <v>6.336425034088203</v>
+        <v>6.336425034088506</v>
       </c>
       <c r="O23" t="n">
-        <v>6.336425034088203</v>
+        <v>6.336425034088506</v>
       </c>
       <c r="P23" t="n">
-        <v>2.51626425543401</v>
+        <v>2.516264255434464</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.51626425543401</v>
+        <v>2.516264255434464</v>
       </c>
       <c r="R23" t="n">
-        <v>2.51626425543401</v>
+        <v>3.233536152761004</v>
       </c>
       <c r="S23" t="n">
-        <v>33.38600171240641</v>
+        <v>34.10327360973341</v>
       </c>
       <c r="T23" t="n">
-        <v>64.25573916937881</v>
+        <v>34.10327360973341</v>
       </c>
       <c r="U23" t="n">
-        <v>93.85647449039085</v>
+        <v>64.97301106670581</v>
       </c>
       <c r="V23" t="n">
-        <v>124.7262119473633</v>
+        <v>95.84274852367821</v>
       </c>
       <c r="W23" t="n">
-        <v>124.7262119473633</v>
+        <v>122.3903872079542</v>
       </c>
       <c r="X23" t="n">
         <v>124.7262119473633</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.2296937788372</v>
+        <v>93.22969377883719</v>
       </c>
     </row>
     <row r="24">
@@ -6203,16 +6203,16 @@
         <v>78.7432542071582</v>
       </c>
       <c r="C26" t="n">
-        <v>78.7432542071582</v>
+        <v>99.88991578201433</v>
       </c>
       <c r="D26" t="n">
-        <v>101.1699326076626</v>
+        <v>101.1699326076623</v>
       </c>
       <c r="E26" t="n">
-        <v>92.67430664103256</v>
+        <v>92.67430664103227</v>
       </c>
       <c r="F26" t="n">
-        <v>61.17778847250648</v>
+        <v>61.17778847250619</v>
       </c>
       <c r="G26" t="n">
         <v>29.6812703039804</v>
@@ -6221,46 +6221,46 @@
         <v>2.494524238947265</v>
       </c>
       <c r="I26" t="n">
-        <v>12.0062512949273</v>
+        <v>12.00625129492728</v>
       </c>
       <c r="J26" t="n">
-        <v>33.33543151503974</v>
+        <v>12.00625129492728</v>
       </c>
       <c r="K26" t="n">
-        <v>33.33543151503974</v>
+        <v>22.97280252970104</v>
       </c>
       <c r="L26" t="n">
-        <v>24.8429294164021</v>
+        <v>14.4803004310636</v>
       </c>
       <c r="M26" t="n">
-        <v>24.8429294164021</v>
+        <v>18.32220122620496</v>
       </c>
       <c r="N26" t="n">
-        <v>30.73657232874403</v>
+        <v>18.32220122620496</v>
       </c>
       <c r="O26" t="n">
-        <v>33.60133561569062</v>
+        <v>18.32220122620496</v>
       </c>
       <c r="P26" t="n">
-        <v>29.78117483703683</v>
+        <v>14.50204044755106</v>
       </c>
       <c r="Q26" t="n">
-        <v>29.78117483703683</v>
+        <v>18.18086486163691</v>
       </c>
       <c r="R26" t="n">
-        <v>29.78117483703683</v>
+        <v>23.91835079071111</v>
       </c>
       <c r="S26" t="n">
-        <v>29.78117483703683</v>
+        <v>34.10327360973318</v>
       </c>
       <c r="T26" t="n">
-        <v>60.65091229400923</v>
+        <v>34.10327360973318</v>
       </c>
       <c r="U26" t="n">
-        <v>91.52064975098166</v>
+        <v>64.97301106670558</v>
       </c>
       <c r="V26" t="n">
-        <v>122.3903872079541</v>
+        <v>95.84274852367798</v>
       </c>
       <c r="W26" t="n">
         <v>122.3903872079541</v>
@@ -6269,7 +6269,7 @@
         <v>124.7262119473633</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.22969377883732</v>
+        <v>93.2296937788373</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="C28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="D28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="E28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="F28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="G28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="H28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="I28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="J28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="K28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="L28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="M28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="N28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="O28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="P28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="R28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="S28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="T28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="U28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="V28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="W28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="X28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.494524238947265</v>
+        <v>124.7262119473633</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.74325420715783</v>
+        <v>52.87199076544551</v>
       </c>
       <c r="C29" t="n">
-        <v>99.8899157820139</v>
+        <v>74.01865234030146</v>
       </c>
       <c r="D29" t="n">
-        <v>101.1699326076627</v>
+        <v>104.8883897972739</v>
       </c>
       <c r="E29" t="n">
-        <v>92.67430664103259</v>
+        <v>96.39276383064366</v>
       </c>
       <c r="F29" t="n">
-        <v>61.17778847250656</v>
+        <v>64.89624566211758</v>
       </c>
       <c r="G29" t="n">
-        <v>29.68127030398046</v>
+        <v>33.3997274935915</v>
       </c>
       <c r="H29" t="n">
-        <v>2.49452423894726</v>
+        <v>6.2129814285586</v>
       </c>
       <c r="I29" t="n">
-        <v>2.49452423894726</v>
+        <v>6.2129814285586</v>
       </c>
       <c r="J29" t="n">
-        <v>33.36426169591938</v>
+        <v>10.98702633758492</v>
       </c>
       <c r="K29" t="n">
-        <v>44.33081293069294</v>
+        <v>10.98702633758492</v>
       </c>
       <c r="L29" t="n">
-        <v>35.83831083205523</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="M29" t="n">
-        <v>39.68021162719618</v>
+        <v>6.314685017601391</v>
       </c>
       <c r="N29" t="n">
-        <v>39.68021162719618</v>
+        <v>6.314685017601391</v>
       </c>
       <c r="O29" t="n">
-        <v>42.54497491414274</v>
+        <v>6.314685017601391</v>
       </c>
       <c r="P29" t="n">
-        <v>38.7248141354886</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.7248141354886</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="R29" t="n">
-        <v>38.7248141354886</v>
+        <v>8.232010168021278</v>
       </c>
       <c r="S29" t="n">
-        <v>62.98673703341834</v>
+        <v>39.10174762499356</v>
       </c>
       <c r="T29" t="n">
-        <v>93.85647449039068</v>
+        <v>39.10174762499356</v>
       </c>
       <c r="U29" t="n">
-        <v>93.85647449039068</v>
+        <v>39.10174762499356</v>
       </c>
       <c r="V29" t="n">
-        <v>124.726211947363</v>
+        <v>69.97148508196597</v>
       </c>
       <c r="W29" t="n">
-        <v>124.726211947363</v>
+        <v>96.51912376624188</v>
       </c>
       <c r="X29" t="n">
-        <v>124.726211947363</v>
+        <v>98.8549485056509</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.229693778837</v>
+        <v>67.35843033712477</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="C30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="D30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="E30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="F30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="G30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="H30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="I30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="J30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="K30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="L30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="M30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="N30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="O30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="P30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="R30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="S30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="T30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="U30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="V30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="W30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="X30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="C31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="D31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="E31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="F31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="G31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="H31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="I31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="J31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="K31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="L31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="M31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="N31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="O31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="P31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="R31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="S31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="T31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="U31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="V31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="W31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="X31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947265</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>133.1132093643829</v>
+        <v>73.1924655763774</v>
       </c>
       <c r="C32" t="n">
-        <v>133.1132093643829</v>
+        <v>95.31845722446309</v>
       </c>
       <c r="D32" t="n">
-        <v>133.1132093643829</v>
+        <v>133.1132093643835</v>
       </c>
       <c r="E32" t="n">
-        <v>125.6167978383505</v>
+        <v>125.6167978383509</v>
       </c>
       <c r="F32" t="n">
-        <v>77.7958733414695</v>
+        <v>77.79587334146981</v>
       </c>
       <c r="G32" t="n">
-        <v>29.97494884458854</v>
+        <v>29.97494884458872</v>
       </c>
       <c r="H32" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="I32" t="n">
         <v>14.27847434936267</v>
@@ -6704,46 +6704,46 @@
         <v>14.27847434936267</v>
       </c>
       <c r="L32" t="n">
-        <v>6.785186691322568</v>
+        <v>6.785186691322572</v>
       </c>
       <c r="M32" t="n">
-        <v>6.785186691322568</v>
+        <v>6.785186691322572</v>
       </c>
       <c r="N32" t="n">
-        <v>13.65815967689423</v>
+        <v>6.785186691322572</v>
       </c>
       <c r="O32" t="n">
-        <v>17.50225303707055</v>
+        <v>6.785186691322572</v>
       </c>
       <c r="P32" t="n">
-        <v>14.68130669901404</v>
+        <v>3.964240353266011</v>
       </c>
       <c r="Q32" t="n">
-        <v>16.29383101339113</v>
+        <v>3.964240353266011</v>
       </c>
       <c r="R32" t="n">
-        <v>16.29383101339113</v>
+        <v>10.6810563555697</v>
       </c>
       <c r="S32" t="n">
-        <v>63.16311911278416</v>
+        <v>57.550344454963</v>
       </c>
       <c r="T32" t="n">
-        <v>63.16311911278416</v>
+        <v>104.4196325543562</v>
       </c>
       <c r="U32" t="n">
-        <v>110.0324072121772</v>
+        <v>104.4196325543562</v>
       </c>
       <c r="V32" t="n">
-        <v>146.2556146532481</v>
+        <v>117.1769944353876</v>
       </c>
       <c r="W32" t="n">
-        <v>173.7825834107539</v>
+        <v>117.1769944353876</v>
       </c>
       <c r="X32" t="n">
-        <v>177.0977382233928</v>
+        <v>117.1769944353876</v>
       </c>
       <c r="Y32" t="n">
-        <v>146.6004344954644</v>
+        <v>86.67969070745909</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="C33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="D33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="E33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="F33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="G33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="H33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="I33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="J33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="K33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="L33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="M33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="N33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="O33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="P33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="R33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="S33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="T33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="U33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="V33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="W33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="X33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="C34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="D34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="E34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="F34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="G34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="H34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="I34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="J34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="K34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="L34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="M34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="N34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="O34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="P34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="R34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="S34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="T34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="U34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="V34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="W34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="X34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.787417220152972</v>
+        <v>3.787417220152983</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>90.08087764401299</v>
+        <v>81.71332141705604</v>
       </c>
       <c r="C35" t="n">
-        <v>112.2068692920988</v>
+        <v>81.71332141705604</v>
       </c>
       <c r="D35" t="n">
-        <v>112.2068692920988</v>
+        <v>112.206869292099</v>
       </c>
       <c r="E35" t="n">
-        <v>104.7104577660664</v>
+        <v>104.7104577660663</v>
       </c>
       <c r="F35" t="n">
-        <v>66.94452560868335</v>
+        <v>66.94452560868343</v>
       </c>
       <c r="G35" t="n">
-        <v>29.17859345130033</v>
+        <v>29.17859345130054</v>
       </c>
       <c r="H35" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="I35" t="n">
-        <v>7.172412868561722</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="J35" t="n">
-        <v>44.18680297601282</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="K35" t="n">
-        <v>56.13268428401611</v>
+        <v>14.9369431348679</v>
       </c>
       <c r="L35" t="n">
-        <v>48.63939662597604</v>
+        <v>7.443655476827752</v>
       </c>
       <c r="M35" t="n">
-        <v>53.46062749434689</v>
+        <v>7.443655476827752</v>
       </c>
       <c r="N35" t="n">
-        <v>60.33360047991857</v>
+        <v>7.443655476827752</v>
       </c>
       <c r="O35" t="n">
-        <v>60.33360047991857</v>
+        <v>7.443655476827752</v>
       </c>
       <c r="P35" t="n">
-        <v>57.51265414186205</v>
+        <v>4.622709138771141</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.51265414186205</v>
+        <v>4.622709138771141</v>
       </c>
       <c r="R35" t="n">
-        <v>57.51265414186205</v>
+        <v>11.3395251410748</v>
       </c>
       <c r="S35" t="n">
-        <v>94.52704424931315</v>
+        <v>48.35391524852577</v>
       </c>
       <c r="T35" t="n">
-        <v>94.52704424931315</v>
+        <v>85.36830535597674</v>
       </c>
       <c r="U35" t="n">
-        <v>94.52704424931315</v>
+        <v>122.3826954634277</v>
       </c>
       <c r="V35" t="n">
-        <v>130.750251690384</v>
+        <v>122.3826954634277</v>
       </c>
       <c r="W35" t="n">
-        <v>130.750251690384</v>
+        <v>122.3826954634277</v>
       </c>
       <c r="X35" t="n">
-        <v>134.0654065030229</v>
+        <v>125.6978502760664</v>
       </c>
       <c r="Y35" t="n">
-        <v>103.5681027750945</v>
+        <v>95.20054654813779</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="C36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="D36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="E36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="F36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="G36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="H36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="I36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="J36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="K36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="L36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="M36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="N36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="O36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="P36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="R36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="S36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="T36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="U36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="V36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="W36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="X36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="C37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="D37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="E37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="F37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="G37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="H37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="I37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="J37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="K37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="L37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="M37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="N37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="O37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="P37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="R37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="S37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="T37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="U37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="V37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="W37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="X37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.991061826864735</v>
+        <v>2.991061826864725</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>76.42340830312598</v>
+        <v>54.9006334695515</v>
       </c>
       <c r="C38" t="n">
-        <v>76.42340830312598</v>
+        <v>76.42340830312656</v>
       </c>
       <c r="D38" t="n">
-        <v>113.4377984105761</v>
+        <v>113.4377984105775</v>
       </c>
       <c r="E38" t="n">
-        <v>105.3259223253042</v>
+        <v>105.3259223253056</v>
       </c>
       <c r="F38" t="n">
-        <v>67.5599901679218</v>
+        <v>67.55999016792269</v>
       </c>
       <c r="G38" t="n">
-        <v>29.79405801053973</v>
+        <v>29.7940580105398</v>
       </c>
       <c r="H38" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="I38" t="n">
-        <v>12.87890214156374</v>
+        <v>12.87890214156384</v>
       </c>
       <c r="J38" t="n">
-        <v>49.8932922490139</v>
+        <v>12.87890214156384</v>
       </c>
       <c r="K38" t="n">
-        <v>61.23595674250656</v>
+        <v>24.22156663505661</v>
       </c>
       <c r="L38" t="n">
-        <v>53.12720452522672</v>
+        <v>16.11281441777718</v>
       </c>
       <c r="M38" t="n">
-        <v>57.34521857908681</v>
+        <v>16.11281441777718</v>
       </c>
       <c r="N38" t="n">
-        <v>57.34521857908681</v>
+        <v>16.11281441777718</v>
       </c>
       <c r="O38" t="n">
-        <v>57.34521857908681</v>
+        <v>16.11281441777718</v>
       </c>
       <c r="P38" t="n">
-        <v>53.90880768179079</v>
+        <v>12.67640352048111</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.96374535459557</v>
+        <v>16.73134119328603</v>
       </c>
       <c r="R38" t="n">
-        <v>64.07734454238877</v>
+        <v>16.73134119328603</v>
       </c>
       <c r="S38" t="n">
-        <v>84.62447617316472</v>
+        <v>16.73134119328603</v>
       </c>
       <c r="T38" t="n">
-        <v>121.6388662806149</v>
+        <v>53.74573130073748</v>
       </c>
       <c r="U38" t="n">
-        <v>121.6388662806149</v>
+        <v>53.74573130073748</v>
       </c>
       <c r="V38" t="n">
-        <v>121.6388662806149</v>
+        <v>70.48040150591703</v>
       </c>
       <c r="W38" t="n">
-        <v>121.6388662806149</v>
+        <v>97.40415344891215</v>
       </c>
       <c r="X38" t="n">
-        <v>121.6388662806149</v>
+        <v>100.1160914470404</v>
       </c>
       <c r="Y38" t="n">
-        <v>90.52609799344701</v>
+        <v>69.00332315987252</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="C39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="D39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="E39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="F39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="G39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="H39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="I39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="J39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="K39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="L39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="M39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="N39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="O39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="P39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="R39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="S39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="T39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="U39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="V39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="W39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="X39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="C40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="D40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="E40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="F40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="G40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="H40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="I40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="J40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="K40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="L40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="M40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="N40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="O40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="P40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="R40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="S40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="T40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="U40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="V40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="W40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="X40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.991061826864659</v>
+        <v>2.991061826864725</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.74325420715761</v>
+        <v>78.74325420715817</v>
       </c>
       <c r="C41" t="n">
-        <v>99.88991578201379</v>
+        <v>99.88991578201407</v>
       </c>
       <c r="D41" t="n">
-        <v>101.1699326076622</v>
+        <v>101.1699326076631</v>
       </c>
       <c r="E41" t="n">
-        <v>92.67430664103219</v>
+        <v>92.67430664103281</v>
       </c>
       <c r="F41" t="n">
-        <v>61.17778847250624</v>
+        <v>61.17778847250683</v>
       </c>
       <c r="G41" t="n">
-        <v>29.68127030398034</v>
+        <v>29.68127030398064</v>
       </c>
       <c r="H41" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="I41" t="n">
-        <v>12.00625129492733</v>
+        <v>12.00625129492715</v>
       </c>
       <c r="J41" t="n">
-        <v>42.87598875189956</v>
+        <v>14.80718711623898</v>
       </c>
       <c r="K41" t="n">
-        <v>53.84253998667324</v>
+        <v>14.80718711623898</v>
       </c>
       <c r="L41" t="n">
-        <v>45.3500378880355</v>
+        <v>6.314685017601352</v>
       </c>
       <c r="M41" t="n">
-        <v>49.19193868317665</v>
+        <v>6.314685017601352</v>
       </c>
       <c r="N41" t="n">
-        <v>55.0855815955187</v>
+        <v>6.314685017601352</v>
       </c>
       <c r="O41" t="n">
-        <v>57.95034488246538</v>
+        <v>6.314685017601352</v>
       </c>
       <c r="P41" t="n">
-        <v>54.13018410381041</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.8090085178962</v>
+        <v>6.173348653032939</v>
       </c>
       <c r="R41" t="n">
-        <v>63.54649444697039</v>
+        <v>6.173348653032939</v>
       </c>
       <c r="S41" t="n">
-        <v>94.41623190394262</v>
+        <v>37.04308611000546</v>
       </c>
       <c r="T41" t="n">
-        <v>94.41623190394262</v>
+        <v>67.91282356697798</v>
       </c>
       <c r="U41" t="n">
-        <v>94.41623190394262</v>
+        <v>67.91282356697798</v>
       </c>
       <c r="V41" t="n">
-        <v>122.3903872079533</v>
+        <v>95.84274852367889</v>
       </c>
       <c r="W41" t="n">
-        <v>122.3903872079533</v>
+        <v>122.3903872079547</v>
       </c>
       <c r="X41" t="n">
-        <v>124.7262119473626</v>
+        <v>124.7262119473637</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.22969377883666</v>
+        <v>93.22969377883751</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="C42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="D42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="E42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="F42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="G42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="H42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="I42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="J42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="K42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="L42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="M42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="N42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="O42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="P42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="R42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="S42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="T42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="U42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="V42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="W42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="X42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="C43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="D43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="E43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="F43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="G43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="H43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="I43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="J43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="K43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="L43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="M43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="N43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="O43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="P43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="R43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="S43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="T43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="U43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="V43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="W43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="X43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.494524238947252</v>
+        <v>2.494524238947274</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.74325420715748</v>
+        <v>49.1535335758347</v>
       </c>
       <c r="C44" t="n">
-        <v>99.88991578201349</v>
+        <v>70.30019515069066</v>
       </c>
       <c r="D44" t="n">
-        <v>101.1699326076624</v>
+        <v>101.1699326076632</v>
       </c>
       <c r="E44" t="n">
-        <v>92.67430664103229</v>
+        <v>92.67430664103297</v>
       </c>
       <c r="F44" t="n">
-        <v>61.17778847250639</v>
+        <v>61.17778847250678</v>
       </c>
       <c r="G44" t="n">
-        <v>29.6812703039805</v>
+        <v>29.68127030398059</v>
       </c>
       <c r="H44" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="I44" t="n">
-        <v>12.00625129492721</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="J44" t="n">
-        <v>12.00625129492721</v>
+        <v>33.36426169591979</v>
       </c>
       <c r="K44" t="n">
-        <v>22.9728025297007</v>
+        <v>33.36426169591979</v>
       </c>
       <c r="L44" t="n">
-        <v>14.4803004310649</v>
+        <v>24.87175959728212</v>
       </c>
       <c r="M44" t="n">
-        <v>18.32220122620594</v>
+        <v>24.87175959728212</v>
       </c>
       <c r="N44" t="n">
-        <v>24.21584413854781</v>
+        <v>29.7871408708761</v>
       </c>
       <c r="O44" t="n">
-        <v>27.08060742549428</v>
+        <v>29.7871408708761</v>
       </c>
       <c r="P44" t="n">
-        <v>23.26044664683999</v>
+        <v>25.96698009222197</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.26044664683999</v>
+        <v>29.64580450630768</v>
       </c>
       <c r="R44" t="n">
-        <v>28.99793257591402</v>
+        <v>35.38329043538172</v>
       </c>
       <c r="S44" t="n">
-        <v>59.86767003288625</v>
+        <v>35.38329043538172</v>
       </c>
       <c r="T44" t="n">
-        <v>62.98673703341808</v>
+        <v>35.38329043538172</v>
       </c>
       <c r="U44" t="n">
-        <v>93.8564744903903</v>
+        <v>66.25302789235424</v>
       </c>
       <c r="V44" t="n">
-        <v>124.7262119473625</v>
+        <v>66.25302789235424</v>
       </c>
       <c r="W44" t="n">
-        <v>124.7262119473625</v>
+        <v>92.80066657663015</v>
       </c>
       <c r="X44" t="n">
-        <v>124.7262119473625</v>
+        <v>95.13649131603917</v>
       </c>
       <c r="Y44" t="n">
-        <v>93.2296937788367</v>
+        <v>63.63997314751398</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="C45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="D45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="E45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="F45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="G45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="H45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="I45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="J45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="K45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="L45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="M45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="N45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="O45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="P45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="R45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="S45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="T45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="U45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="V45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="W45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="X45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="C46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="D46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="E46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="F46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="G46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="H46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="I46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="J46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="K46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="L46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="M46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="N46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="O46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="P46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="R46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="S46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="T46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="U46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="V46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="W46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="X46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.494524238947251</v>
+        <v>2.494524238947274</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.429181277646235</v>
+        <v>7.429181277646068</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.081032152808048</v>
+        <v>1.498275808647508</v>
       </c>
       <c r="F11" t="n">
-        <v>45.69015008300549</v>
+        <v>45.69015008300532</v>
       </c>
       <c r="G11" t="n">
-        <v>75.56587631559329</v>
+        <v>76.75244585159265</v>
       </c>
       <c r="H11" t="n">
-        <v>20.00248470606674</v>
+        <v>20.00248470606657</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.495183179335227</v>
+        <v>1.495183179334832</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6826295890907448</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.26915908852463</v>
+        <v>25.34797548577612</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.429181277645394</v>
+        <v>7.429181277645919</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.498275808646834</v>
+        <v>3.763661741898457</v>
       </c>
       <c r="F14" t="n">
-        <v>45.69015008300465</v>
+        <v>45.69015008300517</v>
       </c>
       <c r="G14" t="n">
-        <v>75.56587631559245</v>
+        <v>75.56587631559297</v>
       </c>
       <c r="H14" t="n">
-        <v>22.26787063931696</v>
+        <v>20.00248470606642</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.495183179334386</v>
+        <v>1.495183179334683</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.26915908852379</v>
+        <v>24.26915908852431</v>
       </c>
     </row>
     <row r="15">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>38.26096880535903</v>
+        <v>38.26096880535925</v>
       </c>
       <c r="G20" t="n">
-        <v>68.13669503794682</v>
+        <v>68.13669503794705</v>
       </c>
       <c r="H20" t="n">
-        <v>12.57330342842028</v>
+        <v>12.5733034284205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.83997781087817</v>
+        <v>16.83997781087839</v>
       </c>
     </row>
     <row r="21">
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.42099099448086</v>
+        <v>21.42099099448092</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29671722706865</v>
+        <v>51.29671722706871</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24926,10 +24926,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>4.270606433217807</v>
+        <v>4.27060643321785</v>
       </c>
       <c r="G32" t="n">
-        <v>34.1463326658056</v>
+        <v>34.14633266580564</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>14.22504884932079</v>
+        <v>14.22504884932113</v>
       </c>
       <c r="G35" t="n">
-        <v>44.10077508190858</v>
+        <v>44.10077508190892</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>14.83435876296883</v>
+        <v>14.83435876296801</v>
       </c>
       <c r="G38" t="n">
-        <v>44.71008499555663</v>
+        <v>44.7100849955558</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>21.42099099448104</v>
+        <v>21.4209909944808</v>
       </c>
       <c r="G44" t="n">
-        <v>51.29671722706884</v>
+        <v>51.2967172270686</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.811883976188255e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1083406.314831662</v>
+        <v>1083406.314831661</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>648044.305148666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>648044.305148666</v>
+      </c>
+      <c r="D2" t="n">
         <v>648044.3051486658</v>
-      </c>
-      <c r="C2" t="n">
-        <v>648044.3051486659</v>
-      </c>
-      <c r="D2" t="n">
-        <v>648044.3051486659</v>
       </c>
       <c r="E2" t="n">
         <v>640194.6405823455</v>
       </c>
       <c r="F2" t="n">
-        <v>640194.6405823455</v>
+        <v>640194.6405823457</v>
       </c>
       <c r="G2" t="n">
-        <v>642388.6624150971</v>
+        <v>642388.6624150975</v>
       </c>
       <c r="H2" t="n">
         <v>642388.6624150972</v>
       </c>
       <c r="I2" t="n">
-        <v>645653.106490288</v>
+        <v>645653.1064902882</v>
       </c>
       <c r="J2" t="n">
-        <v>645653.1064902879</v>
+        <v>645653.1064902882</v>
       </c>
       <c r="K2" t="n">
         <v>645653.106490288</v>
       </c>
       <c r="L2" t="n">
-        <v>647427.8282846879</v>
+        <v>647427.8282846881</v>
       </c>
       <c r="M2" t="n">
-        <v>646397.7425834693</v>
+        <v>646397.7425834689</v>
       </c>
       <c r="N2" t="n">
-        <v>646334.691193605</v>
+        <v>646334.6911936052</v>
       </c>
       <c r="O2" t="n">
-        <v>645653.1064902879</v>
+        <v>645653.106490288</v>
       </c>
       <c r="P2" t="n">
-        <v>645653.1064902877</v>
+        <v>645653.1064902882</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>314713.3016654425</v>
+        <v>314713.3016654429</v>
       </c>
       <c r="F3" t="n">
-        <v>3.283068075177198e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>2679.137952746541</v>
+        <v>2679.137952746696</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>5449.906992410662</v>
+        <v>5449.906992410752</v>
       </c>
       <c r="J3" t="n">
         <v>272628.8078174961</v>
       </c>
       <c r="K3" t="n">
-        <v>1.364242052659392e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5859.591698724775</v>
+        <v>5859.591698724747</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>968.2217403693357</v>
+        <v>968.2217403695631</v>
       </c>
       <c r="O3" t="n">
-        <v>272324.8779114605</v>
+        <v>272324.8779114603</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,28 +26427,28 @@
         <v>545257.9913624502</v>
       </c>
       <c r="F4" t="n">
-        <v>545257.9913624505</v>
+        <v>545257.9913624503</v>
       </c>
       <c r="G4" t="n">
         <v>547217.7714817042</v>
       </c>
       <c r="H4" t="n">
-        <v>547217.7714817044</v>
+        <v>547217.7714817042</v>
       </c>
       <c r="I4" t="n">
-        <v>550134.9769296525</v>
+        <v>550134.9769296524</v>
       </c>
       <c r="J4" t="n">
-        <v>550134.9769296525</v>
+        <v>550134.9769296524</v>
       </c>
       <c r="K4" t="n">
-        <v>550134.9769296525</v>
+        <v>550134.9769296523</v>
       </c>
       <c r="L4" t="n">
-        <v>551720.9217239164</v>
+        <v>551720.9217239163</v>
       </c>
       <c r="M4" t="n">
-        <v>550795.6093432005</v>
+        <v>550795.6093432003</v>
       </c>
       <c r="N4" t="n">
         <v>550744.0615284254</v>
@@ -26457,7 +26457,7 @@
         <v>550134.9769296525</v>
       </c>
       <c r="P4" t="n">
-        <v>550134.9769296525</v>
+        <v>550134.9769296524</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30316.06528626085</v>
+        <v>30316.06528626087</v>
       </c>
       <c r="F5" t="n">
-        <v>30316.0652862609</v>
+        <v>30316.06528626087</v>
       </c>
       <c r="G5" t="n">
         <v>30796.20496292565</v>
       </c>
       <c r="H5" t="n">
-        <v>30796.20496292566</v>
+        <v>30796.20496292565</v>
       </c>
       <c r="I5" t="n">
-        <v>31862.41558580352</v>
+        <v>31862.41558580353</v>
       </c>
       <c r="J5" t="n">
-        <v>31862.41558580353</v>
+        <v>31862.41558580354</v>
       </c>
       <c r="K5" t="n">
         <v>31862.41558580353</v>
       </c>
       <c r="L5" t="n">
-        <v>32928.17718073841</v>
+        <v>32928.1771807384</v>
       </c>
       <c r="M5" t="n">
-        <v>32322.94708183934</v>
+        <v>32322.94708183932</v>
       </c>
       <c r="N5" t="n">
-        <v>32271.72300670889</v>
+        <v>32271.72300670894</v>
       </c>
       <c r="O5" t="n">
         <v>31862.41558580353</v>
       </c>
       <c r="P5" t="n">
-        <v>31862.41558580351</v>
+        <v>31862.41558580353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45366.93147432965</v>
+        <v>45361.65756831063</v>
       </c>
       <c r="C6" t="n">
-        <v>45366.93147432977</v>
+        <v>45361.65756831063</v>
       </c>
       <c r="D6" t="n">
-        <v>45366.93147432977</v>
+        <v>45361.6575683104</v>
       </c>
       <c r="E6" t="n">
-        <v>-250092.717731808</v>
+        <v>-250128.1826553904</v>
       </c>
       <c r="F6" t="n">
-        <v>64620.58393363377</v>
+        <v>64585.11901005248</v>
       </c>
       <c r="G6" t="n">
-        <v>61695.54801772068</v>
+        <v>61668.52163964947</v>
       </c>
       <c r="H6" t="n">
-        <v>64374.68597046714</v>
+        <v>64347.65959239595</v>
       </c>
       <c r="I6" t="n">
-        <v>58205.80698242136</v>
+        <v>58191.33615848538</v>
       </c>
       <c r="J6" t="n">
-        <v>-208973.0938426642</v>
+        <v>-208987.5646665999</v>
       </c>
       <c r="K6" t="n">
-        <v>63655.7139748319</v>
+        <v>63641.24315089616</v>
       </c>
       <c r="L6" t="n">
-        <v>56919.13768130833</v>
+        <v>56911.49271042787</v>
       </c>
       <c r="M6" t="n">
-        <v>63279.18615842945</v>
+        <v>63267.57931946693</v>
       </c>
       <c r="N6" t="n">
-        <v>62350.68491810131</v>
+        <v>62338.8355737933</v>
       </c>
       <c r="O6" t="n">
-        <v>-208669.1639366286</v>
+        <v>-208683.6347605644</v>
       </c>
       <c r="P6" t="n">
-        <v>63655.71397483168</v>
+        <v>63641.24315089615</v>
       </c>
     </row>
   </sheetData>
@@ -26695,13 +26695,13 @@
         <v>340.78600977187</v>
       </c>
       <c r="F2" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="G2" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="H2" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="I2" t="n">
         <v>343.8280582896568</v>
@@ -26710,22 +26710,22 @@
         <v>343.8280582896569</v>
       </c>
       <c r="K2" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="L2" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="M2" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="N2" t="n">
         <v>344.2079706722014</v>
       </c>
       <c r="O2" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="P2" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047947</v>
       </c>
       <c r="F3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047947</v>
       </c>
       <c r="G3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047947</v>
       </c>
       <c r="H3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047947</v>
       </c>
       <c r="I3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047947</v>
       </c>
       <c r="J3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047947</v>
       </c>
       <c r="K3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047947</v>
       </c>
       <c r="L3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="M3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="N3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="O3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047954</v>
       </c>
       <c r="P3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047938</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="F4" t="n">
-        <v>9.954442416103635</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="G4" t="n">
-        <v>16.1611622650712</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="H4" t="n">
-        <v>16.16116226507142</v>
+        <v>16.16116226507125</v>
       </c>
       <c r="I4" t="n">
         <v>31.18155298684081</v>
@@ -26814,22 +26814,22 @@
         <v>31.18155298684081</v>
       </c>
       <c r="K4" t="n">
-        <v>31.18155298684076</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="L4" t="n">
-        <v>47.34271525191215</v>
+        <v>47.34271525191228</v>
       </c>
       <c r="M4" t="n">
-        <v>37.38827283580919</v>
+        <v>37.38827283580906</v>
       </c>
       <c r="N4" t="n">
-        <v>37.38827283580824</v>
+        <v>37.38827283580906</v>
       </c>
       <c r="O4" t="n">
-        <v>31.18155298684064</v>
+        <v>31.18155298684093</v>
       </c>
       <c r="P4" t="n">
-        <v>31.18155298684063</v>
+        <v>31.18155298684093</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>340.78600977187</v>
       </c>
       <c r="F2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>1.222461428677832</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>1.819587089108779</v>
+        <v>1.819587089108836</v>
       </c>
       <c r="J2" t="n">
         <v>340.7860097718701</v>
       </c>
       <c r="K2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.211683724869488</v>
+        <v>2.211683724869431</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.21027717546167</v>
+        <v>1.210277175461954</v>
       </c>
       <c r="O2" t="n">
-        <v>340.4060973893257</v>
+        <v>340.4060973893254</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.68330880047915</v>
+        <v>48.68330880047947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="F4" t="n">
-        <v>6.696865284538944e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.206719848967566</v>
+        <v>6.206719848968133</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15.02039072176939</v>
+        <v>15.02039072176956</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>16.1611622650714</v>
+        <v>16.16116226507147</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>340.78600977187</v>
       </c>
       <c r="K2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>1.222461428677832</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.819587089108779</v>
+        <v>1.819587089108836</v>
       </c>
       <c r="O2" t="n">
         <v>340.7860097718701</v>
       </c>
       <c r="P2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="N4" t="n">
-        <v>6.696865284538944e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.206719848967566</v>
+        <v>6.206719848968133</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28090,10 +28090,10 @@
         <v>340.78600977187</v>
       </c>
       <c r="C11" t="n">
-        <v>332.4222364887334</v>
+        <v>332.4222364887336</v>
       </c>
       <c r="D11" t="n">
-        <v>316.5952056889004</v>
+        <v>316.5952056889005</v>
       </c>
       <c r="E11" t="n">
         <v>340.78600977187</v>
@@ -28114,16 +28114,16 @@
         <v>287.5432433812962</v>
       </c>
       <c r="K11" t="n">
-        <v>332.7507338100876</v>
+        <v>340.78600977187</v>
       </c>
       <c r="L11" t="n">
         <v>340.78600977187</v>
       </c>
       <c r="M11" t="n">
+        <v>339.9473504157767</v>
+      </c>
+      <c r="N11" t="n">
         <v>340.78600977187</v>
-      </c>
-      <c r="N11" t="n">
-        <v>337.8748836307256</v>
       </c>
       <c r="O11" t="n">
         <v>340.78600977187</v>
@@ -28132,25 +28132,25 @@
         <v>340.78600977187</v>
       </c>
       <c r="Q11" t="n">
-        <v>340.1120740330046</v>
+        <v>340.78600977187</v>
       </c>
       <c r="R11" t="n">
-        <v>338.0326179572588</v>
+        <v>338.0326179572587</v>
       </c>
       <c r="S11" t="n">
-        <v>283.4382336441856</v>
+        <v>293.3926760602886</v>
       </c>
       <c r="T11" t="n">
-        <v>234.9712956416403</v>
+        <v>235.4618727940179</v>
       </c>
       <c r="U11" t="n">
-        <v>257.9816716627076</v>
+        <v>256.6638584407334</v>
       </c>
       <c r="V11" t="n">
-        <v>318.1826245766273</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W11" t="n">
-        <v>326.9667040549759</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X11" t="n">
         <v>340.78600977187</v>
@@ -28193,25 +28193,25 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K12" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L12" t="n">
-        <v>202.4143841029774</v>
+        <v>202.4143841029773</v>
       </c>
       <c r="M12" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N12" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735333</v>
       </c>
       <c r="O12" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P12" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.1035996885666</v>
+        <v>214.1035996885665</v>
       </c>
       <c r="R12" t="n">
         <v>230.2276758340869</v>
@@ -28275,19 +28275,19 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L13" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M13" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N13" t="n">
-        <v>194.0548107881602</v>
+        <v>194.0548107881601</v>
       </c>
       <c r="O13" t="n">
         <v>212.5832178493289</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q13" t="n">
         <v>238.8444480189771</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="C14" t="n">
-        <v>332.4222364887341</v>
+        <v>332.4222364887337</v>
       </c>
       <c r="D14" t="n">
-        <v>316.595205688901</v>
+        <v>316.5952056889006</v>
       </c>
       <c r="E14" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="F14" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="G14" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="H14" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="I14" t="n">
-        <v>334.2202531826063</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="J14" t="n">
-        <v>285.9853465499802</v>
+        <v>287.5432433812963</v>
       </c>
       <c r="K14" t="n">
-        <v>340.7860097718702</v>
+        <v>338.6295371938023</v>
       </c>
       <c r="L14" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="M14" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="N14" t="n">
-        <v>337.8748836307256</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="O14" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="P14" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="Q14" t="n">
-        <v>340.1120740330046</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="R14" t="n">
-        <v>340.7860097718702</v>
+        <v>338.0326179572587</v>
       </c>
       <c r="S14" t="n">
-        <v>283.4382336441856</v>
+        <v>283.4382336441855</v>
       </c>
       <c r="T14" t="n">
-        <v>235.4618727940184</v>
+        <v>235.461872794018</v>
       </c>
       <c r="U14" t="n">
-        <v>257.9816716627083</v>
+        <v>257.9816716627079</v>
       </c>
       <c r="V14" t="n">
-        <v>315.0270330684367</v>
+        <v>318.1826245766276</v>
       </c>
       <c r="W14" t="n">
-        <v>326.9667040549766</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X14" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.7860097718702</v>
+        <v>340.7860097718701</v>
       </c>
     </row>
     <row r="15">
@@ -28430,25 +28430,25 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K15" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L15" t="n">
-        <v>202.4143841029774</v>
+        <v>202.4143841029773</v>
       </c>
       <c r="M15" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N15" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735333</v>
       </c>
       <c r="O15" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P15" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.1035996885666</v>
+        <v>214.1035996885665</v>
       </c>
       <c r="R15" t="n">
         <v>230.2276758340869</v>
@@ -28512,19 +28512,19 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L16" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M16" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N16" t="n">
-        <v>194.0548107881602</v>
+        <v>194.0548107881601</v>
       </c>
       <c r="O16" t="n">
         <v>212.5832178493289</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q16" t="n">
         <v>238.8444480189771</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="C17" t="n">
-        <v>338.6289563377017</v>
+        <v>336.1308522181158</v>
       </c>
       <c r="D17" t="n">
-        <v>319.3723972562112</v>
+        <v>322.8019255378687</v>
       </c>
       <c r="E17" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="F17" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="G17" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="H17" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="I17" t="n">
-        <v>334.2202531826064</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="J17" t="n">
-        <v>293.7388983294792</v>
+        <v>293.7499632302644</v>
       </c>
       <c r="K17" t="n">
-        <v>332.7507338100876</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="L17" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="M17" t="n">
-        <v>339.947350415777</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="N17" t="n">
-        <v>337.8748836307256</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="O17" t="n">
-        <v>340.9343579998118</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="P17" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="Q17" t="n">
-        <v>340.1120740330046</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="R17" t="n">
-        <v>338.0326179572588</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="S17" t="n">
-        <v>299.5993959092568</v>
+        <v>283.4382336441855</v>
       </c>
       <c r="T17" t="n">
-        <v>241.668592642986</v>
+        <v>241.6685926429861</v>
       </c>
       <c r="U17" t="n">
-        <v>263.5354152585417</v>
+        <v>248.0272292466047</v>
       </c>
       <c r="V17" t="n">
-        <v>324.3893444255956</v>
+        <v>324.3893444255957</v>
       </c>
       <c r="W17" t="n">
         <v>317.0122616388729</v>
       </c>
       <c r="X17" t="n">
-        <v>341.4686393609607</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
     </row>
     <row r="18">
@@ -28667,25 +28667,25 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K18" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L18" t="n">
-        <v>202.4143841029774</v>
+        <v>202.4143841029773</v>
       </c>
       <c r="M18" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N18" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735333</v>
       </c>
       <c r="O18" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P18" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q18" t="n">
-        <v>214.1035996885666</v>
+        <v>214.1035996885665</v>
       </c>
       <c r="R18" t="n">
         <v>230.2276758340869</v>
@@ -28749,19 +28749,19 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L19" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M19" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N19" t="n">
-        <v>194.0548107881602</v>
+        <v>194.0548107881601</v>
       </c>
       <c r="O19" t="n">
         <v>212.5832178493289</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q19" t="n">
         <v>238.8444480189771</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="C20" t="n">
-        <v>338.6289563377019</v>
+        <v>338.6289563377017</v>
       </c>
       <c r="D20" t="n">
-        <v>322.8019255378688</v>
+        <v>319.3723972562115</v>
       </c>
       <c r="E20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="F20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="G20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="H20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="I20" t="n">
-        <v>334.2202531826064</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="J20" t="n">
-        <v>293.7499632302647</v>
+        <v>280.7429795409786</v>
       </c>
       <c r="K20" t="n">
-        <v>332.7507338100876</v>
+        <v>332.7507338100874</v>
       </c>
       <c r="L20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="M20" t="n">
-        <v>339.947350415777</v>
+        <v>339.9473504157767</v>
       </c>
       <c r="N20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="O20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="P20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="Q20" t="n">
-        <v>342.008471200548</v>
+        <v>340.1120740330044</v>
       </c>
       <c r="R20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="S20" t="n">
-        <v>283.4382336441856</v>
+        <v>299.5993959092568</v>
       </c>
       <c r="T20" t="n">
-        <v>241.6685926429862</v>
+        <v>236.4999313069754</v>
       </c>
       <c r="U20" t="n">
-        <v>248.4750390551206</v>
+        <v>264.1883915116759</v>
       </c>
       <c r="V20" t="n">
-        <v>324.3893444255958</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W20" t="n">
-        <v>333.1734239039444</v>
+        <v>333.1734239039442</v>
       </c>
       <c r="X20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.008471200548</v>
+        <v>342.0084712005479</v>
       </c>
     </row>
     <row r="21">
@@ -28904,25 +28904,25 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K21" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L21" t="n">
-        <v>202.4143841029774</v>
+        <v>202.4143841029773</v>
       </c>
       <c r="M21" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N21" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735333</v>
       </c>
       <c r="O21" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P21" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.1035996885666</v>
+        <v>214.1035996885665</v>
       </c>
       <c r="R21" t="n">
         <v>230.2276758340869</v>
@@ -28986,19 +28986,19 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L22" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M22" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N22" t="n">
-        <v>194.0548107881602</v>
+        <v>194.0548107881601</v>
       </c>
       <c r="O22" t="n">
         <v>212.5832178493289</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q22" t="n">
         <v>238.8444480189771</v>
@@ -29056,13 +29056,13 @@
         <v>343.8280582896568</v>
       </c>
       <c r="I23" t="n">
-        <v>334.2202531826064</v>
+        <v>334.2202531826063</v>
       </c>
       <c r="J23" t="n">
-        <v>286.1670859133122</v>
+        <v>277.5888009651931</v>
       </c>
       <c r="K23" t="n">
-        <v>332.7507338100876</v>
+        <v>341.3290187582062</v>
       </c>
       <c r="L23" t="n">
         <v>343.8280582896568</v>
@@ -29071,37 +29071,37 @@
         <v>343.8280582896568</v>
       </c>
       <c r="N23" t="n">
-        <v>337.8748836307256</v>
+        <v>337.8748836307254</v>
       </c>
       <c r="O23" t="n">
-        <v>340.9343579998118</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P23" t="n">
         <v>343.8280582896568</v>
       </c>
       <c r="Q23" t="n">
-        <v>340.1120740330046</v>
+        <v>340.1120740330044</v>
       </c>
       <c r="R23" t="n">
-        <v>338.0326179572588</v>
+        <v>338.7571350252653</v>
       </c>
       <c r="S23" t="n">
-        <v>314.6197866310264</v>
+        <v>314.6197866310263</v>
       </c>
       <c r="T23" t="n">
-        <v>256.6889833647556</v>
+        <v>225.5074303779147</v>
       </c>
       <c r="U23" t="n">
-        <v>277.9269618940916</v>
+        <v>279.2087822334455</v>
       </c>
       <c r="V23" t="n">
         <v>339.4097351473652</v>
       </c>
       <c r="W23" t="n">
-        <v>317.0122616388729</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="X23" t="n">
-        <v>341.4686393609607</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="Y23" t="n">
         <v>343.8280582896568</v>
@@ -29141,25 +29141,25 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K24" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L24" t="n">
-        <v>202.4143841029774</v>
+        <v>202.4143841029773</v>
       </c>
       <c r="M24" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N24" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735333</v>
       </c>
       <c r="O24" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P24" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.1035996885666</v>
+        <v>214.1035996885665</v>
       </c>
       <c r="R24" t="n">
         <v>230.2276758340869</v>
@@ -29223,19 +29223,19 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L25" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M25" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N25" t="n">
-        <v>194.0548107881602</v>
+        <v>194.0548107881601</v>
       </c>
       <c r="O25" t="n">
         <v>212.5832178493289</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q25" t="n">
         <v>238.8444480189771</v>
@@ -29275,10 +29275,10 @@
         <v>343.8280582896569</v>
       </c>
       <c r="C26" t="n">
-        <v>322.4677940726305</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="D26" t="n">
-        <v>329.2939737783574</v>
+        <v>307.9337095613307</v>
       </c>
       <c r="E26" t="n">
         <v>343.8280582896569</v>
@@ -29296,37 +29296,37 @@
         <v>343.8280582896569</v>
       </c>
       <c r="J26" t="n">
-        <v>299.1334274501554</v>
+        <v>277.5888009651931</v>
       </c>
       <c r="K26" t="n">
-        <v>332.7507338100876</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="L26" t="n">
         <v>343.8280582896569</v>
       </c>
       <c r="M26" t="n">
-        <v>339.947350415777</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="N26" t="n">
-        <v>343.8280582896569</v>
+        <v>337.8748836307254</v>
       </c>
       <c r="O26" t="n">
-        <v>343.8280582896569</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P26" t="n">
         <v>343.8280582896569</v>
       </c>
       <c r="Q26" t="n">
-        <v>340.1120740330046</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="R26" t="n">
-        <v>338.0326179572588</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="S26" t="n">
-        <v>283.4382336441856</v>
+        <v>293.7260344714804</v>
       </c>
       <c r="T26" t="n">
-        <v>256.6889833647556</v>
+        <v>225.5074303779147</v>
       </c>
       <c r="U26" t="n">
         <v>279.2087822334455</v>
@@ -29335,7 +29335,7 @@
         <v>339.4097351473652</v>
       </c>
       <c r="W26" t="n">
-        <v>317.0122616388729</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="X26" t="n">
         <v>343.8280582896569</v>
@@ -29378,25 +29378,25 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K27" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L27" t="n">
-        <v>202.4143841029774</v>
+        <v>202.4143841029773</v>
       </c>
       <c r="M27" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N27" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735333</v>
       </c>
       <c r="O27" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P27" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.1035996885666</v>
+        <v>214.1035996885665</v>
       </c>
       <c r="R27" t="n">
         <v>230.2276758340869</v>
@@ -29460,19 +29460,19 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L28" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M28" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N28" t="n">
-        <v>194.0548107881602</v>
+        <v>194.0548107881601</v>
       </c>
       <c r="O28" t="n">
         <v>212.5832178493289</v>
       </c>
       <c r="P28" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q28" t="n">
         <v>238.8444480189771</v>
@@ -29509,61 +29509,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="C29" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="D29" t="n">
-        <v>307.9337095613315</v>
+        <v>337.8223162596382</v>
       </c>
       <c r="E29" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="F29" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="G29" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="H29" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="I29" t="n">
-        <v>334.2202531826064</v>
+        <v>334.2202531826063</v>
       </c>
       <c r="J29" t="n">
-        <v>308.770353952034</v>
+        <v>282.4110685500682</v>
       </c>
       <c r="K29" t="n">
-        <v>343.8280582896568</v>
+        <v>332.7507338100874</v>
       </c>
       <c r="L29" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="M29" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8060986770435</v>
       </c>
       <c r="N29" t="n">
-        <v>337.8748836307256</v>
+        <v>337.8748836307254</v>
       </c>
       <c r="O29" t="n">
-        <v>343.8280582896568</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="Q29" t="n">
-        <v>340.1120740330046</v>
+        <v>340.1120740330044</v>
       </c>
       <c r="R29" t="n">
-        <v>338.0326179572588</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="S29" t="n">
-        <v>307.9452264703773</v>
+        <v>314.6197866310263</v>
       </c>
       <c r="T29" t="n">
-        <v>256.6889833647555</v>
+        <v>225.5074303779147</v>
       </c>
       <c r="U29" t="n">
         <v>248.0272292466047</v>
@@ -29572,13 +29572,13 @@
         <v>339.4097351473652</v>
       </c>
       <c r="W29" t="n">
-        <v>317.0122616388729</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="X29" t="n">
-        <v>341.4686393609607</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
     </row>
     <row r="30">
@@ -29615,25 +29615,25 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K30" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L30" t="n">
-        <v>202.4143841029774</v>
+        <v>202.4143841029773</v>
       </c>
       <c r="M30" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N30" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735333</v>
       </c>
       <c r="O30" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P30" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q30" t="n">
-        <v>214.1035996885666</v>
+        <v>214.1035996885665</v>
       </c>
       <c r="R30" t="n">
         <v>230.2276758340869</v>
@@ -29697,19 +29697,19 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L31" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M31" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N31" t="n">
-        <v>194.0548107881602</v>
+        <v>194.0548107881601</v>
       </c>
       <c r="O31" t="n">
         <v>212.5832178493289</v>
       </c>
       <c r="P31" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q31" t="n">
         <v>238.8444480189771</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="C32" t="n">
-        <v>322.4677940726305</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="D32" t="n">
-        <v>306.6407632727974</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="E32" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="F32" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="G32" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="H32" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="I32" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="J32" t="n">
         <v>277.5888009651932</v>
       </c>
       <c r="K32" t="n">
-        <v>332.7507338100876</v>
+        <v>332.7507338100875</v>
       </c>
       <c r="L32" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="M32" t="n">
-        <v>339.947350415777</v>
+        <v>339.9473504157768</v>
       </c>
       <c r="N32" t="n">
-        <v>344.8172805858485</v>
+        <v>337.8748836307254</v>
       </c>
       <c r="O32" t="n">
-        <v>344.8172805858485</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P32" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="Q32" t="n">
-        <v>341.7408864717725</v>
+        <v>340.1120740330045</v>
       </c>
       <c r="R32" t="n">
-        <v>338.0326179572588</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="S32" t="n">
-        <v>330.7809488960977</v>
+        <v>330.7809488960978</v>
       </c>
       <c r="T32" t="n">
-        <v>225.5074303779148</v>
+        <v>272.850145629827</v>
       </c>
       <c r="U32" t="n">
-        <v>295.3699444985168</v>
+        <v>248.0272292466047</v>
       </c>
       <c r="V32" t="n">
-        <v>344.8172805858485</v>
+        <v>321.1144062827784</v>
       </c>
       <c r="W32" t="n">
-        <v>344.8172805858485</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X32" t="n">
-        <v>344.8172805858485</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
     </row>
     <row r="33">
@@ -29852,22 +29852,22 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K33" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L33" t="n">
         <v>202.4143841029774</v>
       </c>
       <c r="M33" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N33" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O33" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P33" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q33" t="n">
         <v>214.1035996885666</v>
@@ -29934,10 +29934,10 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L34" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M34" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N34" t="n">
         <v>194.0548107881602</v>
@@ -29946,7 +29946,7 @@
         <v>212.5832178493289</v>
       </c>
       <c r="P34" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q34" t="n">
         <v>238.8444480189771</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="C35" t="n">
-        <v>344.8172805858485</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D35" t="n">
-        <v>306.6407632727974</v>
+        <v>337.4423267829418</v>
       </c>
       <c r="E35" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="F35" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="G35" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="H35" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="I35" t="n">
-        <v>338.4438400934114</v>
+        <v>334.2202531826063</v>
       </c>
       <c r="J35" t="n">
-        <v>314.9770738010024</v>
+        <v>277.5888009651932</v>
       </c>
       <c r="K35" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="L35" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="M35" t="n">
-        <v>344.8172805858485</v>
+        <v>339.9473504157768</v>
       </c>
       <c r="N35" t="n">
-        <v>344.8172805858485</v>
+        <v>337.8748836307254</v>
       </c>
       <c r="O35" t="n">
-        <v>340.9343579998118</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P35" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="Q35" t="n">
-        <v>340.1120740330046</v>
+        <v>340.1120740330045</v>
       </c>
       <c r="R35" t="n">
-        <v>338.0326179572588</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="S35" t="n">
-        <v>320.8265064799947</v>
+        <v>320.8265064799946</v>
       </c>
       <c r="T35" t="n">
-        <v>225.5074303779148</v>
+        <v>262.8957032137238</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0272292466047</v>
+        <v>285.4155020824138</v>
       </c>
       <c r="V35" t="n">
-        <v>344.8172805858485</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W35" t="n">
         <v>317.0122616388729</v>
       </c>
       <c r="X35" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.8172805858485</v>
+        <v>344.8172805858483</v>
       </c>
     </row>
     <row r="36">
@@ -30089,22 +30089,22 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K36" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L36" t="n">
         <v>202.4143841029774</v>
       </c>
       <c r="M36" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N36" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O36" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P36" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q36" t="n">
         <v>214.1035996885666</v>
@@ -30171,10 +30171,10 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L37" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M37" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N37" t="n">
         <v>194.0548107881602</v>
@@ -30183,7 +30183,7 @@
         <v>212.5832178493289</v>
       </c>
       <c r="P37" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q37" t="n">
         <v>238.8444480189771</v>
@@ -30223,10 +30223,10 @@
         <v>344.2079706722014</v>
       </c>
       <c r="C38" t="n">
-        <v>322.4677940726305</v>
+        <v>344.2079706722014</v>
       </c>
       <c r="D38" t="n">
-        <v>344.0290361086056</v>
+        <v>344.0290361086065</v>
       </c>
       <c r="E38" t="n">
         <v>344.2079706722014</v>
@@ -30244,7 +30244,7 @@
         <v>344.2079706722014</v>
       </c>
       <c r="J38" t="n">
-        <v>314.9770738010014</v>
+        <v>277.5888009651932</v>
       </c>
       <c r="K38" t="n">
         <v>344.2079706722014</v>
@@ -30253,13 +30253,13 @@
         <v>344.2079706722014</v>
       </c>
       <c r="M38" t="n">
-        <v>344.2079706722014</v>
+        <v>339.9473504157768</v>
       </c>
       <c r="N38" t="n">
-        <v>337.8748836307256</v>
+        <v>337.8748836307254</v>
       </c>
       <c r="O38" t="n">
-        <v>340.9343579998118</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P38" t="n">
         <v>344.2079706722014</v>
@@ -30268,25 +30268,25 @@
         <v>344.2079706722014</v>
       </c>
       <c r="R38" t="n">
-        <v>344.2079706722014</v>
+        <v>338.0326179572587</v>
       </c>
       <c r="S38" t="n">
-        <v>304.1929120591108</v>
+        <v>283.4382336441855</v>
       </c>
       <c r="T38" t="n">
-        <v>262.895703213723</v>
+        <v>262.8957032137238</v>
       </c>
       <c r="U38" t="n">
         <v>248.0272292466047</v>
       </c>
       <c r="V38" t="n">
-        <v>308.2281821605244</v>
+        <v>325.1318894384835</v>
       </c>
       <c r="W38" t="n">
-        <v>317.0122616388729</v>
+        <v>344.2079706722014</v>
       </c>
       <c r="X38" t="n">
-        <v>341.4686393609607</v>
+        <v>344.2079706722014</v>
       </c>
       <c r="Y38" t="n">
         <v>344.2079706722014</v>
@@ -30326,22 +30326,22 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K39" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L39" t="n">
         <v>202.4143841029774</v>
       </c>
       <c r="M39" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N39" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O39" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P39" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q39" t="n">
         <v>214.1035996885666</v>
@@ -30408,10 +30408,10 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L40" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M40" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N40" t="n">
         <v>194.0548107881602</v>
@@ -30420,7 +30420,7 @@
         <v>212.5832178493289</v>
       </c>
       <c r="P40" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q40" t="n">
         <v>238.8444480189771</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="C41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="D41" t="n">
-        <v>307.9337095613311</v>
+        <v>307.9337095613317</v>
       </c>
       <c r="E41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="F41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="G41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="H41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="I41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="J41" t="n">
-        <v>308.7703539520339</v>
+        <v>280.4180290675284</v>
       </c>
       <c r="K41" t="n">
-        <v>343.828058289657</v>
+        <v>332.7507338100874</v>
       </c>
       <c r="L41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="M41" t="n">
-        <v>343.828058289657</v>
+        <v>339.9473504157767</v>
       </c>
       <c r="N41" t="n">
-        <v>343.828058289657</v>
+        <v>337.8748836307253</v>
       </c>
       <c r="O41" t="n">
-        <v>343.828058289657</v>
+        <v>340.9343579998116</v>
       </c>
       <c r="P41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="Q41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="R41" t="n">
-        <v>343.828058289657</v>
+        <v>338.0326179572587</v>
       </c>
       <c r="S41" t="n">
-        <v>314.6197866310262</v>
+        <v>314.6197866310264</v>
       </c>
       <c r="T41" t="n">
-        <v>225.5074303779148</v>
+        <v>256.6889833647557</v>
       </c>
       <c r="U41" t="n">
         <v>248.0272292466047</v>
       </c>
       <c r="V41" t="n">
-        <v>336.4849046898281</v>
+        <v>336.4402275713335</v>
       </c>
       <c r="W41" t="n">
-        <v>317.0122616388729</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="X41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.828058289657</v>
+        <v>343.8280582896567</v>
       </c>
     </row>
     <row r="42">
@@ -30560,28 +30560,28 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J42" t="n">
-        <v>196.2178682873794</v>
+        <v>196.2178682873793</v>
       </c>
       <c r="K42" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021328</v>
       </c>
       <c r="L42" t="n">
-        <v>202.4143841029774</v>
+        <v>202.4143841029773</v>
       </c>
       <c r="M42" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270184</v>
       </c>
       <c r="N42" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735333</v>
       </c>
       <c r="O42" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288296</v>
       </c>
       <c r="P42" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q42" t="n">
-        <v>214.1035996885666</v>
+        <v>214.1035996885665</v>
       </c>
       <c r="R42" t="n">
         <v>230.2276758340869</v>
@@ -30645,19 +30645,19 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L43" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M43" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N43" t="n">
-        <v>194.0548107881602</v>
+        <v>194.0548107881601</v>
       </c>
       <c r="O43" t="n">
         <v>212.5832178493289</v>
       </c>
       <c r="P43" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q43" t="n">
         <v>238.8444480189771</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="C44" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="D44" t="n">
-        <v>307.9337095613317</v>
+        <v>337.8223162596383</v>
       </c>
       <c r="E44" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="F44" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="H44" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="I44" t="n">
-        <v>343.8280582896568</v>
+        <v>334.2202531826063</v>
       </c>
       <c r="J44" t="n">
-        <v>277.5888009651932</v>
+        <v>308.7703539520341</v>
       </c>
       <c r="K44" t="n">
-        <v>343.8280582896568</v>
+        <v>332.7507338100875</v>
       </c>
       <c r="L44" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="M44" t="n">
-        <v>343.8280582896568</v>
+        <v>339.9473504157768</v>
       </c>
       <c r="N44" t="n">
-        <v>343.8280582896568</v>
+        <v>342.8399152202142</v>
       </c>
       <c r="O44" t="n">
-        <v>343.8280582896568</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P44" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="Q44" t="n">
-        <v>340.1120740330046</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="R44" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="S44" t="n">
-        <v>314.6197866310262</v>
+        <v>283.4382336441855</v>
       </c>
       <c r="T44" t="n">
-        <v>228.6580031057247</v>
+        <v>225.5074303779147</v>
       </c>
       <c r="U44" t="n">
-        <v>279.2087822334453</v>
+        <v>279.2087822334456</v>
       </c>
       <c r="V44" t="n">
-        <v>339.409735147365</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W44" t="n">
-        <v>317.0122616388729</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="X44" t="n">
-        <v>341.4686393609607</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896567</v>
       </c>
     </row>
     <row r="45">
@@ -30800,22 +30800,22 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K45" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L45" t="n">
-        <v>202.4143841029775</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M45" t="n">
-        <v>204.4354018270187</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N45" t="n">
-        <v>186.1956450735335</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O45" t="n">
-        <v>206.8045250288298</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P45" t="n">
-        <v>197.712431873237</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q45" t="n">
         <v>214.1035996885666</v>
@@ -30882,10 +30882,10 @@
         <v>199.4469922899048</v>
       </c>
       <c r="L46" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763066</v>
       </c>
       <c r="M46" t="n">
-        <v>211.9929842649129</v>
+        <v>211.9929842649128</v>
       </c>
       <c r="N46" t="n">
         <v>194.0548107881602</v>
@@ -30894,7 +30894,7 @@
         <v>212.5832178493289</v>
       </c>
       <c r="P46" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391832</v>
       </c>
       <c r="Q46" t="n">
         <v>238.8444480189771</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727816</v>
       </c>
       <c r="H11" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412072</v>
       </c>
       <c r="I11" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846171</v>
       </c>
       <c r="J11" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067214</v>
       </c>
       <c r="K11" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800599</v>
       </c>
       <c r="L11" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892126</v>
       </c>
       <c r="M11" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854146</v>
       </c>
       <c r="N11" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373488</v>
       </c>
       <c r="O11" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042928</v>
       </c>
       <c r="P11" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178873</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297599</v>
       </c>
       <c r="R11" t="n">
-        <v>12.29388099070593</v>
+        <v>12.293880990706</v>
       </c>
       <c r="S11" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712266</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.856728378991352</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.01565694353382253</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708426</v>
       </c>
       <c r="H12" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855243</v>
       </c>
       <c r="I12" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224188</v>
       </c>
       <c r="J12" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954042</v>
       </c>
       <c r="K12" t="n">
-        <v>16.90918283120039</v>
+        <v>16.9091828312005</v>
       </c>
       <c r="L12" t="n">
-        <v>22.73648303931812</v>
+        <v>22.73648303931827</v>
       </c>
       <c r="M12" t="n">
-        <v>26.53240329626114</v>
+        <v>26.5324032962613</v>
       </c>
       <c r="N12" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188332</v>
       </c>
       <c r="O12" t="n">
-        <v>24.91437219339238</v>
+        <v>24.91437219339254</v>
       </c>
       <c r="P12" t="n">
-        <v>19.99598017504964</v>
+        <v>19.99598017504977</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121844</v>
       </c>
       <c r="R12" t="n">
-        <v>6.501518107354558</v>
+        <v>6.5015181073546</v>
       </c>
       <c r="S12" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528589</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701945</v>
       </c>
       <c r="U12" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765965</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676624</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667041</v>
       </c>
       <c r="I13" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639116</v>
       </c>
       <c r="J13" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546373</v>
       </c>
       <c r="K13" t="n">
-        <v>10.19955223721514</v>
+        <v>10.1995522372152</v>
       </c>
       <c r="L13" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070559</v>
       </c>
       <c r="M13" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994537</v>
       </c>
       <c r="N13" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784379</v>
       </c>
       <c r="O13" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491566</v>
       </c>
       <c r="P13" t="n">
-        <v>10.61774984068155</v>
+        <v>10.61774984068161</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872399</v>
       </c>
       <c r="R13" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986416</v>
       </c>
       <c r="S13" t="n">
-        <v>1.52993283558227</v>
+        <v>1.52993283558228</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725466</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096346</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727816</v>
       </c>
       <c r="H14" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412072</v>
       </c>
       <c r="I14" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846171</v>
       </c>
       <c r="J14" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067214</v>
       </c>
       <c r="K14" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800599</v>
       </c>
       <c r="L14" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892126</v>
       </c>
       <c r="M14" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854146</v>
       </c>
       <c r="N14" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373488</v>
       </c>
       <c r="O14" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042928</v>
       </c>
       <c r="P14" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178873</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297599</v>
       </c>
       <c r="R14" t="n">
-        <v>12.29388099070593</v>
+        <v>12.293880990706</v>
       </c>
       <c r="S14" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712266</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.856728378991352</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.01565694353382253</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708426</v>
       </c>
       <c r="H15" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855243</v>
       </c>
       <c r="I15" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224188</v>
       </c>
       <c r="J15" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954042</v>
       </c>
       <c r="K15" t="n">
-        <v>16.90918283120039</v>
+        <v>16.9091828312005</v>
       </c>
       <c r="L15" t="n">
-        <v>22.73648303931812</v>
+        <v>22.73648303931827</v>
       </c>
       <c r="M15" t="n">
-        <v>26.53240329626114</v>
+        <v>26.5324032962613</v>
       </c>
       <c r="N15" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188332</v>
       </c>
       <c r="O15" t="n">
-        <v>24.91437219339238</v>
+        <v>24.91437219339254</v>
       </c>
       <c r="P15" t="n">
-        <v>19.99598017504964</v>
+        <v>19.99598017504977</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121844</v>
       </c>
       <c r="R15" t="n">
-        <v>6.501518107354558</v>
+        <v>6.5015181073546</v>
       </c>
       <c r="S15" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528589</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701945</v>
       </c>
       <c r="U15" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765965</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676624</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667041</v>
       </c>
       <c r="I16" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639116</v>
       </c>
       <c r="J16" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546373</v>
       </c>
       <c r="K16" t="n">
-        <v>10.19955223721514</v>
+        <v>10.1995522372152</v>
       </c>
       <c r="L16" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070559</v>
       </c>
       <c r="M16" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994537</v>
       </c>
       <c r="N16" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784379</v>
       </c>
       <c r="O16" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491566</v>
       </c>
       <c r="P16" t="n">
-        <v>10.61774984068155</v>
+        <v>10.61774984068161</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872399</v>
       </c>
       <c r="R16" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986416</v>
       </c>
       <c r="S16" t="n">
-        <v>1.52993283558227</v>
+        <v>1.52993283558228</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725466</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096346</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727816</v>
       </c>
       <c r="H17" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412072</v>
       </c>
       <c r="I17" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846171</v>
       </c>
       <c r="J17" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067214</v>
       </c>
       <c r="K17" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800599</v>
       </c>
       <c r="L17" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892126</v>
       </c>
       <c r="M17" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854146</v>
       </c>
       <c r="N17" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373488</v>
       </c>
       <c r="O17" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042928</v>
       </c>
       <c r="P17" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178873</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297599</v>
       </c>
       <c r="R17" t="n">
-        <v>12.29388099070593</v>
+        <v>12.293880990706</v>
       </c>
       <c r="S17" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712266</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.856728378991352</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.01565694353382253</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708426</v>
       </c>
       <c r="H18" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855243</v>
       </c>
       <c r="I18" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224188</v>
       </c>
       <c r="J18" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954042</v>
       </c>
       <c r="K18" t="n">
-        <v>16.90918283120039</v>
+        <v>16.9091828312005</v>
       </c>
       <c r="L18" t="n">
-        <v>22.73648303931812</v>
+        <v>22.73648303931827</v>
       </c>
       <c r="M18" t="n">
-        <v>26.53240329626114</v>
+        <v>26.5324032962613</v>
       </c>
       <c r="N18" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188332</v>
       </c>
       <c r="O18" t="n">
-        <v>24.91437219339238</v>
+        <v>24.91437219339254</v>
       </c>
       <c r="P18" t="n">
-        <v>19.99598017504964</v>
+        <v>19.99598017504977</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121844</v>
       </c>
       <c r="R18" t="n">
-        <v>6.501518107354558</v>
+        <v>6.5015181073546</v>
       </c>
       <c r="S18" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528589</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701945</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765965</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676624</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667041</v>
       </c>
       <c r="I19" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639116</v>
       </c>
       <c r="J19" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546373</v>
       </c>
       <c r="K19" t="n">
-        <v>10.19955223721514</v>
+        <v>10.1995522372152</v>
       </c>
       <c r="L19" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070559</v>
       </c>
       <c r="M19" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994537</v>
       </c>
       <c r="N19" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784379</v>
       </c>
       <c r="O19" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491566</v>
       </c>
       <c r="P19" t="n">
-        <v>10.61774984068155</v>
+        <v>10.61774984068161</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872399</v>
       </c>
       <c r="R19" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986416</v>
       </c>
       <c r="S19" t="n">
-        <v>1.52993283558227</v>
+        <v>1.52993283558228</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725466</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096346</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727816</v>
       </c>
       <c r="H20" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412072</v>
       </c>
       <c r="I20" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846171</v>
       </c>
       <c r="J20" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067214</v>
       </c>
       <c r="K20" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800599</v>
       </c>
       <c r="L20" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892126</v>
       </c>
       <c r="M20" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854146</v>
       </c>
       <c r="N20" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373488</v>
       </c>
       <c r="O20" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042928</v>
       </c>
       <c r="P20" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178873</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297599</v>
       </c>
       <c r="R20" t="n">
-        <v>12.29388099070593</v>
+        <v>12.293880990706</v>
       </c>
       <c r="S20" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712266</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.856728378991352</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.01565694353382253</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708426</v>
       </c>
       <c r="H21" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855243</v>
       </c>
       <c r="I21" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224188</v>
       </c>
       <c r="J21" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954042</v>
       </c>
       <c r="K21" t="n">
-        <v>16.90918283120039</v>
+        <v>16.9091828312005</v>
       </c>
       <c r="L21" t="n">
-        <v>22.73648303931812</v>
+        <v>22.73648303931827</v>
       </c>
       <c r="M21" t="n">
-        <v>26.53240329626114</v>
+        <v>26.5324032962613</v>
       </c>
       <c r="N21" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188332</v>
       </c>
       <c r="O21" t="n">
-        <v>24.91437219339238</v>
+        <v>24.91437219339254</v>
       </c>
       <c r="P21" t="n">
-        <v>19.99598017504964</v>
+        <v>19.99598017504977</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121844</v>
       </c>
       <c r="R21" t="n">
-        <v>6.501518107354558</v>
+        <v>6.5015181073546</v>
       </c>
       <c r="S21" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528589</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701945</v>
       </c>
       <c r="U21" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765965</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676624</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667041</v>
       </c>
       <c r="I22" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639116</v>
       </c>
       <c r="J22" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546373</v>
       </c>
       <c r="K22" t="n">
-        <v>10.19955223721514</v>
+        <v>10.1995522372152</v>
       </c>
       <c r="L22" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070559</v>
       </c>
       <c r="M22" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994537</v>
       </c>
       <c r="N22" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784379</v>
       </c>
       <c r="O22" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491566</v>
       </c>
       <c r="P22" t="n">
-        <v>10.61774984068155</v>
+        <v>10.61774984068161</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872399</v>
       </c>
       <c r="R22" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986416</v>
       </c>
       <c r="S22" t="n">
-        <v>1.52993283558227</v>
+        <v>1.52993283558228</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725466</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096346</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727816</v>
       </c>
       <c r="H23" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412072</v>
       </c>
       <c r="I23" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846171</v>
       </c>
       <c r="J23" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067214</v>
       </c>
       <c r="K23" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800599</v>
       </c>
       <c r="L23" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892126</v>
       </c>
       <c r="M23" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854146</v>
       </c>
       <c r="N23" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373488</v>
       </c>
       <c r="O23" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042928</v>
       </c>
       <c r="P23" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178873</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297599</v>
       </c>
       <c r="R23" t="n">
-        <v>12.29388099070593</v>
+        <v>12.293880990706</v>
       </c>
       <c r="S23" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712266</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.856728378991352</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.01565694353382253</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708426</v>
       </c>
       <c r="H24" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855243</v>
       </c>
       <c r="I24" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224188</v>
       </c>
       <c r="J24" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954042</v>
       </c>
       <c r="K24" t="n">
-        <v>16.90918283120039</v>
+        <v>16.9091828312005</v>
       </c>
       <c r="L24" t="n">
-        <v>22.73648303931812</v>
+        <v>22.73648303931827</v>
       </c>
       <c r="M24" t="n">
-        <v>26.53240329626114</v>
+        <v>26.5324032962613</v>
       </c>
       <c r="N24" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188332</v>
       </c>
       <c r="O24" t="n">
-        <v>24.91437219339238</v>
+        <v>24.91437219339254</v>
       </c>
       <c r="P24" t="n">
-        <v>19.99598017504964</v>
+        <v>19.99598017504977</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121844</v>
       </c>
       <c r="R24" t="n">
-        <v>6.501518107354558</v>
+        <v>6.5015181073546</v>
       </c>
       <c r="S24" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528589</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701945</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765965</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676624</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667041</v>
       </c>
       <c r="I25" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639116</v>
       </c>
       <c r="J25" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546373</v>
       </c>
       <c r="K25" t="n">
-        <v>10.19955223721514</v>
+        <v>10.1995522372152</v>
       </c>
       <c r="L25" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070559</v>
       </c>
       <c r="M25" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994537</v>
       </c>
       <c r="N25" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784379</v>
       </c>
       <c r="O25" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491566</v>
       </c>
       <c r="P25" t="n">
-        <v>10.61774984068155</v>
+        <v>10.61774984068161</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872399</v>
       </c>
       <c r="R25" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986416</v>
       </c>
       <c r="S25" t="n">
-        <v>1.52993283558227</v>
+        <v>1.52993283558228</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725466</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096346</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727816</v>
       </c>
       <c r="H26" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412072</v>
       </c>
       <c r="I26" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846171</v>
       </c>
       <c r="J26" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067214</v>
       </c>
       <c r="K26" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800599</v>
       </c>
       <c r="L26" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892126</v>
       </c>
       <c r="M26" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854146</v>
       </c>
       <c r="N26" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373488</v>
       </c>
       <c r="O26" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042928</v>
       </c>
       <c r="P26" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178873</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297599</v>
       </c>
       <c r="R26" t="n">
-        <v>12.29388099070593</v>
+        <v>12.293880990706</v>
       </c>
       <c r="S26" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712266</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.856728378991352</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.01565694353382253</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708426</v>
       </c>
       <c r="H27" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855243</v>
       </c>
       <c r="I27" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224188</v>
       </c>
       <c r="J27" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954042</v>
       </c>
       <c r="K27" t="n">
-        <v>16.90918283120039</v>
+        <v>16.9091828312005</v>
       </c>
       <c r="L27" t="n">
-        <v>22.73648303931812</v>
+        <v>22.73648303931827</v>
       </c>
       <c r="M27" t="n">
-        <v>26.53240329626114</v>
+        <v>26.5324032962613</v>
       </c>
       <c r="N27" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188332</v>
       </c>
       <c r="O27" t="n">
-        <v>24.91437219339238</v>
+        <v>24.91437219339254</v>
       </c>
       <c r="P27" t="n">
-        <v>19.99598017504964</v>
+        <v>19.99598017504977</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121844</v>
       </c>
       <c r="R27" t="n">
-        <v>6.501518107354558</v>
+        <v>6.5015181073546</v>
       </c>
       <c r="S27" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528589</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701945</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765965</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676624</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667041</v>
       </c>
       <c r="I28" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639116</v>
       </c>
       <c r="J28" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546373</v>
       </c>
       <c r="K28" t="n">
-        <v>10.19955223721514</v>
+        <v>10.1995522372152</v>
       </c>
       <c r="L28" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070559</v>
       </c>
       <c r="M28" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994537</v>
       </c>
       <c r="N28" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784379</v>
       </c>
       <c r="O28" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491566</v>
       </c>
       <c r="P28" t="n">
-        <v>10.61774984068155</v>
+        <v>10.61774984068161</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872399</v>
       </c>
       <c r="R28" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986416</v>
       </c>
       <c r="S28" t="n">
-        <v>1.52993283558227</v>
+        <v>1.52993283558228</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725466</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096346</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727816</v>
       </c>
       <c r="H29" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412072</v>
       </c>
       <c r="I29" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846171</v>
       </c>
       <c r="J29" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067214</v>
       </c>
       <c r="K29" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800599</v>
       </c>
       <c r="L29" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892126</v>
       </c>
       <c r="M29" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854146</v>
       </c>
       <c r="N29" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373488</v>
       </c>
       <c r="O29" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042928</v>
       </c>
       <c r="P29" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178873</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297599</v>
       </c>
       <c r="R29" t="n">
-        <v>12.29388099070593</v>
+        <v>12.293880990706</v>
       </c>
       <c r="S29" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712266</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.856728378991352</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.01565694353382253</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708426</v>
       </c>
       <c r="H30" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855243</v>
       </c>
       <c r="I30" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224188</v>
       </c>
       <c r="J30" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954042</v>
       </c>
       <c r="K30" t="n">
-        <v>16.90918283120039</v>
+        <v>16.9091828312005</v>
       </c>
       <c r="L30" t="n">
-        <v>22.73648303931812</v>
+        <v>22.73648303931827</v>
       </c>
       <c r="M30" t="n">
-        <v>26.53240329626114</v>
+        <v>26.5324032962613</v>
       </c>
       <c r="N30" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188332</v>
       </c>
       <c r="O30" t="n">
-        <v>24.91437219339238</v>
+        <v>24.91437219339254</v>
       </c>
       <c r="P30" t="n">
-        <v>19.99598017504964</v>
+        <v>19.99598017504977</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121844</v>
       </c>
       <c r="R30" t="n">
-        <v>6.501518107354558</v>
+        <v>6.5015181073546</v>
       </c>
       <c r="S30" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528589</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701945</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765965</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676624</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667041</v>
       </c>
       <c r="I31" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639116</v>
       </c>
       <c r="J31" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546373</v>
       </c>
       <c r="K31" t="n">
-        <v>10.19955223721514</v>
+        <v>10.1995522372152</v>
       </c>
       <c r="L31" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070559</v>
       </c>
       <c r="M31" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994537</v>
       </c>
       <c r="N31" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784379</v>
       </c>
       <c r="O31" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491566</v>
       </c>
       <c r="P31" t="n">
-        <v>10.61774984068155</v>
+        <v>10.61774984068161</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872399</v>
       </c>
       <c r="R31" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986416</v>
       </c>
       <c r="S31" t="n">
-        <v>1.52993283558227</v>
+        <v>1.52993283558228</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725466</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096346</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H32" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I32" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J32" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K32" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L32" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M32" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N32" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O32" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P32" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R32" t="n">
-        <v>12.29388099070593</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S32" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H33" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I33" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J33" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K33" t="n">
-        <v>16.90918283120039</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L33" t="n">
-        <v>22.73648303931812</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M33" t="n">
-        <v>26.53240329626114</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N33" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O33" t="n">
-        <v>24.91437219339238</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P33" t="n">
-        <v>19.99598017504964</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R33" t="n">
-        <v>6.501518107354558</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S33" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I34" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J34" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K34" t="n">
-        <v>10.19955223721514</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L34" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M34" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N34" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O34" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P34" t="n">
-        <v>10.61774984068155</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R34" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S34" t="n">
-        <v>1.52993283558227</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H35" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I35" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J35" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K35" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L35" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M35" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N35" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O35" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P35" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R35" t="n">
-        <v>12.29388099070593</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S35" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H36" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I36" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J36" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K36" t="n">
-        <v>16.90918283120039</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L36" t="n">
-        <v>22.73648303931812</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M36" t="n">
-        <v>26.53240329626114</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N36" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O36" t="n">
-        <v>24.91437219339238</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P36" t="n">
-        <v>19.99598017504964</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R36" t="n">
-        <v>6.501518107354558</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S36" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I37" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J37" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K37" t="n">
-        <v>10.19955223721514</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L37" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M37" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N37" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O37" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P37" t="n">
-        <v>10.61774984068155</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R37" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S37" t="n">
-        <v>1.52993283558227</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H38" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I38" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J38" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K38" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L38" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M38" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N38" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O38" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P38" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R38" t="n">
-        <v>12.29388099070593</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S38" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H39" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I39" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J39" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K39" t="n">
-        <v>16.90918283120039</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L39" t="n">
-        <v>22.73648303931812</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M39" t="n">
-        <v>26.53240329626114</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N39" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O39" t="n">
-        <v>24.91437219339238</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P39" t="n">
-        <v>19.99598017504964</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R39" t="n">
-        <v>6.501518107354558</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S39" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I40" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J40" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K40" t="n">
-        <v>10.19955223721514</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L40" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M40" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N40" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O40" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P40" t="n">
-        <v>10.61774984068155</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R40" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S40" t="n">
-        <v>1.52993283558227</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727819</v>
       </c>
       <c r="H41" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412072004</v>
       </c>
       <c r="I41" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846183</v>
       </c>
       <c r="J41" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067217</v>
       </c>
       <c r="K41" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800603</v>
       </c>
       <c r="L41" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892131</v>
       </c>
       <c r="M41" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854152</v>
       </c>
       <c r="N41" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373494</v>
       </c>
       <c r="O41" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042934</v>
       </c>
       <c r="P41" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178878</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297602</v>
       </c>
       <c r="R41" t="n">
-        <v>12.29388099070593</v>
+        <v>12.29388099070602</v>
       </c>
       <c r="S41" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712273</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.8567283789913533</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.01565694353382255</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708428</v>
       </c>
       <c r="H42" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855245</v>
       </c>
       <c r="I42" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224193</v>
       </c>
       <c r="J42" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954057</v>
       </c>
       <c r="K42" t="n">
-        <v>16.90918283120039</v>
+        <v>16.90918283120052</v>
       </c>
       <c r="L42" t="n">
-        <v>22.73648303931812</v>
+        <v>22.7364830393183</v>
       </c>
       <c r="M42" t="n">
-        <v>26.53240329626114</v>
+        <v>26.53240329626135</v>
       </c>
       <c r="N42" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188337</v>
       </c>
       <c r="O42" t="n">
-        <v>24.91437219339238</v>
+        <v>24.91437219339258</v>
       </c>
       <c r="P42" t="n">
-        <v>19.99598017504964</v>
+        <v>19.9959801750498</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121846</v>
       </c>
       <c r="R42" t="n">
-        <v>6.501518107354558</v>
+        <v>6.50151810735461</v>
       </c>
       <c r="S42" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528592</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701951</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765976</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676638</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667053</v>
       </c>
       <c r="I43" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639121</v>
       </c>
       <c r="J43" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546383</v>
       </c>
       <c r="K43" t="n">
-        <v>10.19955223721514</v>
+        <v>10.19955223721522</v>
       </c>
       <c r="L43" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070561</v>
       </c>
       <c r="M43" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994539</v>
       </c>
       <c r="N43" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784381</v>
       </c>
       <c r="O43" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491567</v>
       </c>
       <c r="P43" t="n">
-        <v>10.61774984068155</v>
+        <v>10.61774984068163</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872411</v>
       </c>
       <c r="R43" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986422</v>
       </c>
       <c r="S43" t="n">
-        <v>1.52993283558227</v>
+        <v>1.529932835582283</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725472</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096354</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1957117941727804</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H44" t="n">
-        <v>2.004333412071988</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I44" t="n">
-        <v>7.545178944846122</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J44" t="n">
-        <v>16.61079389067203</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K44" t="n">
-        <v>24.89527413800583</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L44" t="n">
-        <v>30.88478895892106</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M44" t="n">
-        <v>34.36527857854124</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N44" t="n">
-        <v>34.92134471373466</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O44" t="n">
-        <v>32.97523556042908</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P44" t="n">
-        <v>28.14360064178856</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.13467201297585</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R44" t="n">
-        <v>12.29388099070593</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S44" t="n">
-        <v>4.459782509712237</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8567283789913465</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01565694353382243</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.104715041570842</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H45" t="n">
-        <v>1.011326848855237</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I45" t="n">
-        <v>3.605320510224164</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J45" t="n">
-        <v>9.893275045953978</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K45" t="n">
-        <v>16.90918283120039</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L45" t="n">
-        <v>22.73648303931812</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M45" t="n">
-        <v>26.53240329626114</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N45" t="n">
-        <v>27.23463706188315</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O45" t="n">
-        <v>24.91437219339238</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P45" t="n">
-        <v>19.99598017504964</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.36678320121835</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R45" t="n">
-        <v>6.501518107354558</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S45" t="n">
-        <v>1.945035969528576</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4220751017701918</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006889147471765921</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08778957324676567</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7805291148666991</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I46" t="n">
-        <v>2.640071893639099</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J46" t="n">
-        <v>6.206722828546333</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K46" t="n">
-        <v>10.19955223721514</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L46" t="n">
-        <v>13.05191528070551</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M46" t="n">
-        <v>13.76141464994528</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N46" t="n">
-        <v>13.43419896784371</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O46" t="n">
-        <v>12.40865713491558</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P46" t="n">
-        <v>10.61774984068155</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.351179628872352</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R46" t="n">
-        <v>3.94733844798639</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S46" t="n">
-        <v>1.52993283558227</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3751009038725441</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004788522177096315</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="D11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,22 +35404,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.565756589263628</v>
+        <v>6.565756589263685</v>
       </c>
       <c r="J11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>8.035275961782588</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8386593560930464</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.911126141144635</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35428,25 +35428,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.6739357388655662</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="T11" t="n">
-        <v>9.463865263725552</v>
+        <v>9.954442416103133</v>
       </c>
       <c r="U11" t="n">
-        <v>9.954442416102966</v>
+        <v>8.636629194128712</v>
       </c>
       <c r="V11" t="n">
-        <v>9.954442416102966</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.954442416102966</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.954442416103635</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="D14" t="n">
-        <v>9.954442416103635</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,22 +35641,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.565756589263742</v>
       </c>
       <c r="J14" t="n">
-        <v>8.396545584787024</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="K14" t="n">
-        <v>8.035275961782588</v>
+        <v>5.878803383714843</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.838659356093217</v>
+        <v>0.8386593560933306</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.911126141144678</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35665,25 +35665,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.6739357388655982</v>
       </c>
       <c r="R14" t="n">
-        <v>2.753391814611401</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>9.954442416103635</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="U14" t="n">
-        <v>9.954442416103635</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="V14" t="n">
-        <v>6.798850907912254</v>
+        <v>9.954442416103225</v>
       </c>
       <c r="W14" t="n">
-        <v>9.954442416103635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35860,10 +35860,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>16.1611622650712</v>
+        <v>13.66305814548537</v>
       </c>
       <c r="D17" t="n">
-        <v>12.73163398341376</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35878,52 +35878,52 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.788218017941574</v>
       </c>
       <c r="J17" t="n">
-        <v>16.15009736428595</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>9.257737390460477</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.061120784771163</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.133587569822524</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.074113200736235</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.896397167543455</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.975853243289198</v>
       </c>
       <c r="S17" t="n">
-        <v>16.1611622650712</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>16.1611622650712</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="U17" t="n">
-        <v>15.50818601193703</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>16.1611622650712</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.5398318395871797</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>16.16116226507142</v>
+        <v>16.16116226507125</v>
       </c>
       <c r="D20" t="n">
-        <v>16.16116226507142</v>
+        <v>12.7316339834141</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7.788218017941631</v>
       </c>
       <c r="J20" t="n">
-        <v>16.16116226507142</v>
+        <v>3.154178575785465</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36130,37 +36130,37 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.133587569822396</v>
+        <v>4.133587569822566</v>
       </c>
       <c r="O20" t="n">
-        <v>1.074113200736178</v>
+        <v>1.074113200736292</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.896397167543398</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>3.975853243289237</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>16.16116226507125</v>
       </c>
       <c r="T20" t="n">
-        <v>16.16116226507142</v>
+        <v>10.99250092906063</v>
       </c>
       <c r="U20" t="n">
-        <v>0.447809808515866</v>
+        <v>16.16116226507125</v>
       </c>
       <c r="V20" t="n">
-        <v>16.16116226507142</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>16.16116226507142</v>
+        <v>16.16116226507125</v>
       </c>
       <c r="X20" t="n">
-        <v>0.5398318395872934</v>
+        <v>0.5398318395872366</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>8.578284948118961</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>8.578284948118835</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3.880707873879828</v>
+        <v>3.880707873880056</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36379,25 +36379,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.7245170680066053</v>
       </c>
       <c r="S23" t="n">
         <v>31.18155298684081</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>31.18155298684081</v>
-      </c>
-      <c r="U23" t="n">
-        <v>29.89973264748687</v>
       </c>
       <c r="V23" t="n">
         <v>31.18155298684081</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>26.81579665078385</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>2.359418928696073</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -36571,10 +36571,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>21.36026421702644</v>
       </c>
       <c r="D26" t="n">
-        <v>22.65321050555997</v>
+        <v>1.292946288533301</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -36589,40 +36589,40 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.607805107050524</v>
+        <v>9.607805107050581</v>
       </c>
       <c r="J26" t="n">
-        <v>21.54462648496219</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>11.07732447956946</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3.880707873880169</v>
       </c>
       <c r="N26" t="n">
-        <v>5.953174658931289</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.89370028984505</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>3.715984256652462</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>5.795440332398186</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>10.2878008272949</v>
       </c>
       <c r="T26" t="n">
-        <v>31.18155298684081</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>31.18155298684081</v>
@@ -36631,7 +36631,7 @@
         <v>31.18155298684081</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>26.81579665078397</v>
       </c>
       <c r="X26" t="n">
         <v>2.359418928696186</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>21.36026421702638</v>
+        <v>21.36026421702627</v>
       </c>
       <c r="D29" t="n">
-        <v>1.292946288534097</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>31.18155298684076</v>
+        <v>4.822267584875075</v>
       </c>
       <c r="K29" t="n">
-        <v>11.07732447956926</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.880707873879885</v>
+        <v>3.858748261266783</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.893700289845015</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,25 +36853,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>5.795440332398016</v>
       </c>
       <c r="S29" t="n">
-        <v>24.50699282619172</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="T29" t="n">
-        <v>31.18155298684076</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>31.18155298684076</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>26.8157966507838</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>2.359418928696016</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -37045,10 +37045,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>22.34948651321787</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>38.17651731305091</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.59702740324212</v>
+        <v>10.59702740324201</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -37078,37 +37078,37 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>6.942396955122888</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3.882922586036671</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.628812438767863</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.784662628589615</v>
       </c>
       <c r="S32" t="n">
-        <v>47.34271525191215</v>
+        <v>47.34271525191228</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>47.34271525191228</v>
       </c>
       <c r="U32" t="n">
-        <v>47.34271525191215</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>36.5890984253241</v>
+        <v>12.88622412225396</v>
       </c>
       <c r="W32" t="n">
-        <v>27.80501894697557</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>3.348641224887785</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -37282,10 +37282,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>22.34948651321804</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>30.80156351014444</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -37300,22 +37300,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.223586910805037</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>37.38827283580919</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>12.0665467757609</v>
+        <v>12.06654677576079</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.869930170071562</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>6.942396955122909</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37327,25 +37327,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>6.784662628589555</v>
       </c>
       <c r="S35" t="n">
-        <v>37.38827283580919</v>
+        <v>37.38827283580906</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>37.38827283580906</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>37.38827283580906</v>
       </c>
       <c r="V35" t="n">
-        <v>36.5890984253241</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>3.348641224887785</v>
+        <v>3.348641224887558</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -37519,10 +37519,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>21.74017659957093</v>
       </c>
       <c r="D38" t="n">
-        <v>37.38827283580824</v>
+        <v>37.38827283580906</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37537,19 +37537,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.987717489595013</v>
+        <v>9.98771748959507</v>
       </c>
       <c r="J38" t="n">
-        <v>37.38827283580824</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>11.4572368621138</v>
+        <v>11.45723686211391</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.260620256424431</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37561,28 +37561,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.095896639196781</v>
+        <v>4.095896639196894</v>
       </c>
       <c r="R38" t="n">
-        <v>6.175352714942619</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.75467841492521</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>37.38827283580824</v>
+        <v>37.38827283580906</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>16.90370727795914</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>27.19570903332846</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>2.739331311240676</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -37756,10 +37756,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>21.3602642170265</v>
+        <v>21.36026421702621</v>
       </c>
       <c r="D41" t="n">
-        <v>1.292946288533699</v>
+        <v>1.292946288534324</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37774,52 +37774,52 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.607805107050581</v>
+        <v>9.607805107050353</v>
       </c>
       <c r="J41" t="n">
-        <v>31.18155298684064</v>
+        <v>2.829228102335264</v>
       </c>
       <c r="K41" t="n">
-        <v>11.07732447956937</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>3.880707873879999</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>5.953174658931367</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.893700289845128</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.715984256652348</v>
+        <v>3.715984256652241</v>
       </c>
       <c r="R41" t="n">
-        <v>5.795440332398183</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.18155298684064</v>
+        <v>31.18155298684093</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>31.18155298684093</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>28.25672252930372</v>
+        <v>28.21204541080914</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>26.81579665078374</v>
       </c>
       <c r="X41" t="n">
-        <v>2.359418928696243</v>
+        <v>2.359418928695959</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -37993,10 +37993,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>21.36026421702633</v>
+        <v>21.36026421702627</v>
       </c>
       <c r="D44" t="n">
-        <v>1.292946288534267</v>
+        <v>31.18155298684093</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38011,52 +38011,52 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.60780510705041</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>31.18155298684093</v>
       </c>
       <c r="K44" t="n">
-        <v>11.07732447956919</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.880707873879828</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>5.953174658931175</v>
+        <v>4.965031589488774</v>
       </c>
       <c r="O44" t="n">
-        <v>2.893700289844958</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>3.715984256652234</v>
       </c>
       <c r="R44" t="n">
-        <v>5.795440332398012</v>
+        <v>5.795440332398016</v>
       </c>
       <c r="S44" t="n">
-        <v>31.18155298684063</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>3.150572727809942</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.18155298684063</v>
+        <v>31.18155298684093</v>
       </c>
       <c r="V44" t="n">
-        <v>31.18155298684063</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>26.8157966507838</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>2.359418928696016</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
